--- a/outputs-HGR-r202-archive/g__Sutterella_train.xlsx
+++ b/outputs-HGR-r202-archive/g__Sutterella_train.xlsx
@@ -505,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H129"/>
+  <dimension ref="A1:H113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1278,26 +1278,26 @@
     <row r="26">
       <c r="A26" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000250875_1.fasta</t>
+          <t>label_GCF_000250875_0.fasta</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.8219289494303875</v>
+        <v>0.8723017408398902</v>
       </c>
       <c r="C26" t="n">
-        <v>0.1124229175044911</v>
+        <v>0.08068771948129705</v>
       </c>
       <c r="D26" t="n">
-        <v>0.02195942983327193</v>
+        <v>0.04701053967876817</v>
       </c>
       <c r="E26" t="n">
-        <v>0.02045897430453739</v>
+        <v>2.234273972595401e-14</v>
       </c>
       <c r="F26" t="n">
-        <v>0.02322972892731204</v>
+        <v>2.234273972595401e-14</v>
       </c>
       <c r="G26" t="n">
-        <v>0.8219289494303875</v>
+        <v>0.8723017408398902</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
@@ -1308,26 +1308,26 @@
     <row r="27">
       <c r="A27" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000250875_10.fasta</t>
+          <t>label_GCF_000250875_26.fasta</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.8605777080831899</v>
+        <v>0.8773754780388309</v>
       </c>
       <c r="C27" t="n">
-        <v>0.07188411280612056</v>
+        <v>0.07691770258510973</v>
       </c>
       <c r="D27" t="n">
-        <v>0.03152495531814027</v>
+        <v>0.04570681937475547</v>
       </c>
       <c r="E27" t="n">
-        <v>0.01136676643295353</v>
+        <v>1.28166359093169e-12</v>
       </c>
       <c r="F27" t="n">
-        <v>0.02464645735959584</v>
+        <v>2.233570029119881e-14</v>
       </c>
       <c r="G27" t="n">
-        <v>0.8605777080831899</v>
+        <v>0.8773754780388309</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
@@ -1338,26 +1338,26 @@
     <row r="28">
       <c r="A28" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000250875_11.fasta</t>
+          <t>label_GCF_000250875_27.fasta</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.8702393588756456</v>
+        <v>0.8643144842423965</v>
       </c>
       <c r="C28" t="n">
-        <v>0.06364997461916097</v>
+        <v>0.08817475972794092</v>
       </c>
       <c r="D28" t="n">
-        <v>0.03091442820237187</v>
+        <v>0.04751075419146999</v>
       </c>
       <c r="E28" t="n">
-        <v>0.01119302172973219</v>
+        <v>1.838170139062079e-09</v>
       </c>
       <c r="F28" t="n">
-        <v>0.02400321657308946</v>
+        <v>2.233604735212462e-14</v>
       </c>
       <c r="G28" t="n">
-        <v>0.8702393588756456</v>
+        <v>0.8643144842423965</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
@@ -1368,26 +1368,26 @@
     <row r="29">
       <c r="A29" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000250875_17.fasta</t>
+          <t>label_GCF_000250875_30.fasta</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.9123709246617967</v>
+        <v>0.8810646600465727</v>
       </c>
       <c r="C29" t="n">
-        <v>0.02087881186942021</v>
+        <v>0.07200748126898857</v>
       </c>
       <c r="D29" t="n">
-        <v>0.03706514515497109</v>
+        <v>0.0469278586843941</v>
       </c>
       <c r="E29" t="n">
-        <v>0.002722605659025793</v>
+        <v>2.232164078099895e-14</v>
       </c>
       <c r="F29" t="n">
-        <v>0.02696251265478609</v>
+        <v>2.232164078099895e-14</v>
       </c>
       <c r="G29" t="n">
-        <v>0.9123709246617967</v>
+        <v>0.8810646600465727</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
@@ -1398,26 +1398,26 @@
     <row r="30">
       <c r="A30" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000250875_34.fasta</t>
+          <t>label_GCF_000250875_41.fasta</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.6604769948880294</v>
+        <v>0.6706403314850212</v>
       </c>
       <c r="C30" t="n">
-        <v>3.060556331810405e-07</v>
+        <v>0.09185875569169925</v>
       </c>
       <c r="D30" t="n">
-        <v>0.1892706394093121</v>
+        <v>0.23750091282292</v>
       </c>
       <c r="E30" t="n">
-        <v>0.0805124911994744</v>
+        <v>1.796268238558782e-13</v>
       </c>
       <c r="F30" t="n">
-        <v>0.06973956844755112</v>
+        <v>1.796268238558782e-13</v>
       </c>
       <c r="G30" t="n">
-        <v>0.6604769948880294</v>
+        <v>0.6706403314850212</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
@@ -1428,26 +1428,26 @@
     <row r="31">
       <c r="A31" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000250875_38.fasta</t>
+          <t>label_GCF_000250875_48.fasta</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.8543936370225677</v>
+        <v>0.8761346669388089</v>
       </c>
       <c r="C31" t="n">
-        <v>0.08412550697162857</v>
+        <v>0.07772838491773855</v>
       </c>
       <c r="D31" t="n">
-        <v>0.02993920535043496</v>
+        <v>0.0461369481434078</v>
       </c>
       <c r="E31" t="n">
-        <v>0.007516600971551074</v>
+        <v>2.234827801938475e-14</v>
       </c>
       <c r="F31" t="n">
-        <v>0.02402504968381778</v>
+        <v>2.234827801938475e-14</v>
       </c>
       <c r="G31" t="n">
-        <v>0.8543936370225677</v>
+        <v>0.8761346669388089</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
@@ -1458,26 +1458,26 @@
     <row r="32">
       <c r="A32" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000250875_43.fasta</t>
+          <t>label_GCF_000250875_51.fasta</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.9004607038441028</v>
+        <v>0.8662849358240126</v>
       </c>
       <c r="C32" t="n">
-        <v>0.01649420254640746</v>
+        <v>0.08709180380045317</v>
       </c>
       <c r="D32" t="n">
-        <v>0.04035546975817367</v>
+        <v>0.04662326037548957</v>
       </c>
       <c r="E32" t="n">
-        <v>0.01756222416592548</v>
+        <v>2.233226494299818e-14</v>
       </c>
       <c r="F32" t="n">
-        <v>0.02512739968539065</v>
+        <v>2.233226494299818e-14</v>
       </c>
       <c r="G32" t="n">
-        <v>0.9004607038441028</v>
+        <v>0.8662849358240126</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
@@ -1488,26 +1488,26 @@
     <row r="33">
       <c r="A33" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000250875_45.fasta</t>
+          <t>label_GCF_000250875_53.fasta</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.9222792056829877</v>
+        <v>0.8794875226141242</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0002505927685363631</v>
+        <v>0.07261877633080496</v>
       </c>
       <c r="D33" t="n">
-        <v>0.04234641786461804</v>
+        <v>0.04789370105502616</v>
       </c>
       <c r="E33" t="n">
-        <v>0.006901042643419493</v>
+        <v>2.233176112137512e-14</v>
       </c>
       <c r="F33" t="n">
-        <v>0.02822274104043845</v>
+        <v>2.233176112137512e-14</v>
       </c>
       <c r="G33" t="n">
-        <v>0.9222792056829877</v>
+        <v>0.8794875226141242</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
@@ -1518,26 +1518,26 @@
     <row r="34">
       <c r="A34" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000250875_52.fasta</t>
+          <t>label_GCF_000250875_60.fasta</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.8486457422297446</v>
+        <v>0.8681525914565512</v>
       </c>
       <c r="C34" t="n">
-        <v>0.07524127969018669</v>
+        <v>0.08542720662228173</v>
       </c>
       <c r="D34" t="n">
-        <v>0.02888898205760713</v>
+        <v>0.0464202019211224</v>
       </c>
       <c r="E34" t="n">
-        <v>0.02307736138578809</v>
+        <v>2.233705003956699e-14</v>
       </c>
       <c r="F34" t="n">
-        <v>0.02414663463667344</v>
+        <v>2.233705003956699e-14</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8486457422297446</v>
+        <v>0.8681525914565512</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
@@ -1548,26 +1548,26 @@
     <row r="35">
       <c r="A35" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000250875_57.fasta</t>
+          <t>label_GCF_000250875_65.fasta</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.9202815113611706</v>
+        <v>0.8633481318885992</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0152079586483314</v>
+        <v>0.04920913214238862</v>
       </c>
       <c r="D35" t="n">
-        <v>0.03453094899142171</v>
+        <v>0.08744260769708165</v>
       </c>
       <c r="E35" t="n">
-        <v>0.002314344631353091</v>
+        <v>1.282719081695017e-07</v>
       </c>
       <c r="F35" t="n">
-        <v>0.02766523636772319</v>
+        <v>2.231751691973116e-14</v>
       </c>
       <c r="G35" t="n">
-        <v>0.9202815113611706</v>
+        <v>0.8633481318885992</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
@@ -1578,26 +1578,26 @@
     <row r="36">
       <c r="A36" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000250875_59.fasta</t>
+          <t>label_GCF_000250875_66.fasta</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.8584715421454876</v>
+        <v>0.9168781434729725</v>
       </c>
       <c r="C36" t="n">
-        <v>0.08229320925533758</v>
+        <v>0.04743636838633791</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0276517139045361</v>
+        <v>0.03568548814064499</v>
       </c>
       <c r="E36" t="n">
-        <v>0.006816960568377945</v>
+        <v>2.227101968591756e-14</v>
       </c>
       <c r="F36" t="n">
-        <v>0.02476657412626084</v>
+        <v>2.227101968591756e-14</v>
       </c>
       <c r="G36" t="n">
-        <v>0.8584715421454876</v>
+        <v>0.9168781434729725</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
@@ -1608,26 +1608,26 @@
     <row r="37">
       <c r="A37" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000250875_74.fasta</t>
+          <t>label_GCF_000250875_69.fasta</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.8914352605304107</v>
+        <v>0.8756236780334745</v>
       </c>
       <c r="C37" t="n">
-        <v>0.02914473523511322</v>
+        <v>0.07620872847849722</v>
       </c>
       <c r="D37" t="n">
-        <v>0.02800058289824209</v>
+        <v>0.04816759348798357</v>
       </c>
       <c r="E37" t="n">
-        <v>0.01993009006178986</v>
+        <v>2.235051649277896e-14</v>
       </c>
       <c r="F37" t="n">
-        <v>0.03148933127444423</v>
+        <v>2.235051649277896e-14</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8914352605304107</v>
+        <v>0.8756236780334745</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
@@ -1638,26 +1638,26 @@
     <row r="38">
       <c r="A38" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000250875_75.fasta</t>
+          <t>label_GCF_000250875_70.fasta</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.8377398029526717</v>
+        <v>0.8767752811843785</v>
       </c>
       <c r="C38" t="n">
-        <v>1.884885395832705e-05</v>
+        <v>0.07637044890501486</v>
       </c>
       <c r="D38" t="n">
-        <v>0.1258712524319533</v>
+        <v>0.04685426991056185</v>
       </c>
       <c r="E38" t="n">
-        <v>0.01626570272619798</v>
+        <v>2.234580851678936e-14</v>
       </c>
       <c r="F38" t="n">
-        <v>0.02010439303521876</v>
+        <v>2.234580851678936e-14</v>
       </c>
       <c r="G38" t="n">
-        <v>0.8377398029526717</v>
+        <v>0.8767752811843785</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
@@ -1668,26 +1668,26 @@
     <row r="39">
       <c r="A39" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000250875_80.fasta</t>
+          <t>label_GCF_000250875_78.fasta</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.9195841041219952</v>
+        <v>0.8796970202949882</v>
       </c>
       <c r="C39" t="n">
-        <v>0.009854378255701832</v>
+        <v>0.0714525591857442</v>
       </c>
       <c r="D39" t="n">
-        <v>0.04074873722871217</v>
+        <v>0.04885042051922284</v>
       </c>
       <c r="E39" t="n">
-        <v>0.002211404170027009</v>
+        <v>2.233426968266836e-14</v>
       </c>
       <c r="F39" t="n">
-        <v>0.02760137622356383</v>
+        <v>2.233426968266836e-14</v>
       </c>
       <c r="G39" t="n">
-        <v>0.9195841041219952</v>
+        <v>0.8796970202949882</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
@@ -1698,26 +1698,26 @@
     <row r="40">
       <c r="A40" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000250875_84.fasta</t>
+          <t>label_GCF_000250875_79.fasta</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.9152250978938078</v>
+        <v>0.8855044294855875</v>
       </c>
       <c r="C40" t="n">
-        <v>0.01603918817397413</v>
+        <v>0.06756951034654822</v>
       </c>
       <c r="D40" t="n">
-        <v>0.038246674944287</v>
+        <v>0.04692606013327396</v>
       </c>
       <c r="E40" t="n">
-        <v>0.002992193912413189</v>
+        <v>3.456787060785756e-11</v>
       </c>
       <c r="F40" t="n">
-        <v>0.02749684507551798</v>
+        <v>2.234249871663841e-14</v>
       </c>
       <c r="G40" t="n">
-        <v>0.9152250978938078</v>
+        <v>0.8855044294855875</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
@@ -1728,26 +1728,26 @@
     <row r="41">
       <c r="A41" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000250875_92.fasta</t>
+          <t>label_GCF_000250875_90.fasta</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.9003056777943569</v>
+        <v>0.8915759062571752</v>
       </c>
       <c r="C41" t="n">
-        <v>0.03483316792759845</v>
+        <v>0.06036342765927816</v>
       </c>
       <c r="D41" t="n">
-        <v>0.03433557342077919</v>
+        <v>0.04806066608335641</v>
       </c>
       <c r="E41" t="n">
-        <v>0.003607399478317571</v>
+        <v>1.679432335825464e-13</v>
       </c>
       <c r="F41" t="n">
-        <v>0.02691818137894789</v>
+        <v>2.230059779799716e-14</v>
       </c>
       <c r="G41" t="n">
-        <v>0.9003056777943569</v>
+        <v>0.8915759062571752</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
@@ -1758,26 +1758,26 @@
     <row r="42">
       <c r="A42" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000250875_0.fasta</t>
+          <t>label_GCF_000250875_93.fasta</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.8723017408398902</v>
+        <v>0.8774374657831006</v>
       </c>
       <c r="C42" t="n">
-        <v>0.08068771948129705</v>
+        <v>0.07793129446582783</v>
       </c>
       <c r="D42" t="n">
-        <v>0.04701053967876817</v>
+        <v>0.04463123975096003</v>
       </c>
       <c r="E42" t="n">
-        <v>2.234273972595401e-14</v>
+        <v>8.92634902821654e-14</v>
       </c>
       <c r="F42" t="n">
-        <v>2.234273972595401e-14</v>
+        <v>2.23334728130969e-14</v>
       </c>
       <c r="G42" t="n">
-        <v>0.8723017408398902</v>
+        <v>0.8774374657831006</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
@@ -1788,26 +1788,26 @@
     <row r="43">
       <c r="A43" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000250875_26.fasta</t>
+          <t>label_GCF_000250875_98.fasta</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.8773754780388309</v>
+        <v>0.878196497531147</v>
       </c>
       <c r="C43" t="n">
-        <v>0.07691770258510973</v>
+        <v>0.0736962386748634</v>
       </c>
       <c r="D43" t="n">
-        <v>0.04570681937475547</v>
+        <v>0.04810726379394487</v>
       </c>
       <c r="E43" t="n">
-        <v>1.28166359093169e-12</v>
+        <v>2.233491646829794e-14</v>
       </c>
       <c r="F43" t="n">
-        <v>2.233570029119881e-14</v>
+        <v>2.233491646829794e-14</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8773754780388309</v>
+        <v>0.878196497531147</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
@@ -1818,26 +1818,26 @@
     <row r="44">
       <c r="A44" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000250875_27.fasta</t>
+          <t>label_GCF_000250875_100.fasta</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.8643144842423965</v>
+        <v>0.8591849640703323</v>
       </c>
       <c r="C44" t="n">
-        <v>0.08817475972794092</v>
+        <v>0.07484764035835814</v>
       </c>
       <c r="D44" t="n">
-        <v>0.04751075419146999</v>
+        <v>0.04264813048388812</v>
       </c>
       <c r="E44" t="n">
-        <v>1.838170139062079e-09</v>
+        <v>0.001259743981619608</v>
       </c>
       <c r="F44" t="n">
-        <v>2.233604735212462e-14</v>
+        <v>0.02205952110580188</v>
       </c>
       <c r="G44" t="n">
-        <v>0.8643144842423965</v>
+        <v>0.8591849640703323</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
@@ -1848,26 +1848,26 @@
     <row r="45">
       <c r="A45" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000250875_30.fasta</t>
+          <t>label_GCF_000250875_102.fasta</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.8810646600465727</v>
+        <v>0.8192643080754429</v>
       </c>
       <c r="C45" t="n">
-        <v>0.07200748126898857</v>
+        <v>0.1152485680732373</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0469278586843941</v>
+        <v>0.04254800938642705</v>
       </c>
       <c r="E45" t="n">
-        <v>2.232164078099895e-14</v>
+        <v>0.00162905753257503</v>
       </c>
       <c r="F45" t="n">
-        <v>2.232164078099895e-14</v>
+        <v>0.02131005693231767</v>
       </c>
       <c r="G45" t="n">
-        <v>0.8810646600465727</v>
+        <v>0.8192643080754429</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
@@ -1878,26 +1878,26 @@
     <row r="46">
       <c r="A46" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000250875_41.fasta</t>
+          <t>label_GCF_000250875_12.fasta</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.6706403314850212</v>
+        <v>0.7659124605087267</v>
       </c>
       <c r="C46" t="n">
-        <v>0.09185875569169925</v>
+        <v>0.1332182695179859</v>
       </c>
       <c r="D46" t="n">
-        <v>0.23750091282292</v>
+        <v>0.05234682295855384</v>
       </c>
       <c r="E46" t="n">
-        <v>1.796268238558782e-13</v>
+        <v>0.02098123319802664</v>
       </c>
       <c r="F46" t="n">
-        <v>1.796268238558782e-13</v>
+        <v>0.02754121381670679</v>
       </c>
       <c r="G46" t="n">
-        <v>0.6706403314850212</v>
+        <v>0.7659124605087267</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
@@ -1908,26 +1908,26 @@
     <row r="47">
       <c r="A47" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000250875_48.fasta</t>
+          <t>label_GCF_000250875_13.fasta</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.8761346669388089</v>
+        <v>0.8462952829270862</v>
       </c>
       <c r="C47" t="n">
-        <v>0.07772838491773855</v>
+        <v>0.09409333265576837</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0461369481434078</v>
+        <v>0.03833097942468489</v>
       </c>
       <c r="E47" t="n">
-        <v>2.234827801938475e-14</v>
+        <v>0.00196447128783384</v>
       </c>
       <c r="F47" t="n">
-        <v>2.234827801938475e-14</v>
+        <v>0.01931593370462662</v>
       </c>
       <c r="G47" t="n">
-        <v>0.8761346669388089</v>
+        <v>0.8462952829270862</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
@@ -1938,26 +1938,26 @@
     <row r="48">
       <c r="A48" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000250875_51.fasta</t>
+          <t>label_GCF_000250875_19.fasta</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.8662849358240126</v>
+        <v>0.8463978672142249</v>
       </c>
       <c r="C48" t="n">
-        <v>0.08709180380045317</v>
+        <v>0.08746100900971328</v>
       </c>
       <c r="D48" t="n">
-        <v>0.04662326037548957</v>
+        <v>0.0434366297500508</v>
       </c>
       <c r="E48" t="n">
-        <v>2.233226494299818e-14</v>
+        <v>0.00348186226804071</v>
       </c>
       <c r="F48" t="n">
-        <v>2.233226494299818e-14</v>
+        <v>0.01922263175797042</v>
       </c>
       <c r="G48" t="n">
-        <v>0.8662849358240126</v>
+        <v>0.8463978672142249</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
@@ -1968,26 +1968,26 @@
     <row r="49">
       <c r="A49" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000250875_53.fasta</t>
+          <t>label_GCF_000250875_2.fasta</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.8794875226141242</v>
+        <v>0.6825972579543857</v>
       </c>
       <c r="C49" t="n">
-        <v>0.07261877633080496</v>
+        <v>0.2452875987044819</v>
       </c>
       <c r="D49" t="n">
-        <v>0.04789370105502616</v>
+        <v>0.04428913644384364</v>
       </c>
       <c r="E49" t="n">
-        <v>2.233176112137512e-14</v>
+        <v>0.002998179925453137</v>
       </c>
       <c r="F49" t="n">
-        <v>2.233176112137512e-14</v>
+        <v>0.02482782697183549</v>
       </c>
       <c r="G49" t="n">
-        <v>0.8794875226141242</v>
+        <v>0.6825972579543857</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
@@ -1998,26 +1998,26 @@
     <row r="50">
       <c r="A50" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000250875_60.fasta</t>
+          <t>label_GCF_000250875_46.fasta</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.8681525914565512</v>
+        <v>0.873127427965681</v>
       </c>
       <c r="C50" t="n">
-        <v>0.08542720662228173</v>
+        <v>0.05302566291473353</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0464202019211224</v>
+        <v>0.05015289317725044</v>
       </c>
       <c r="E50" t="n">
-        <v>2.233705003956699e-14</v>
+        <v>0.002093612239233062</v>
       </c>
       <c r="F50" t="n">
-        <v>2.233705003956699e-14</v>
+        <v>0.02160040370310187</v>
       </c>
       <c r="G50" t="n">
-        <v>0.8681525914565512</v>
+        <v>0.873127427965681</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
@@ -2028,26 +2028,26 @@
     <row r="51">
       <c r="A51" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000250875_65.fasta</t>
+          <t>label_GCF_000250875_5.fasta</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.8633481318885992</v>
+        <v>0.903853801292839</v>
       </c>
       <c r="C51" t="n">
-        <v>0.04920913214238862</v>
+        <v>0.00767533683041044</v>
       </c>
       <c r="D51" t="n">
-        <v>0.08744260769708165</v>
+        <v>0.05230751807986179</v>
       </c>
       <c r="E51" t="n">
-        <v>1.282719081695017e-07</v>
+        <v>0.01770501350363696</v>
       </c>
       <c r="F51" t="n">
-        <v>2.231751691973116e-14</v>
+        <v>0.01845833029325183</v>
       </c>
       <c r="G51" t="n">
-        <v>0.8633481318885992</v>
+        <v>0.903853801292839</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
@@ -2058,26 +2058,26 @@
     <row r="52">
       <c r="A52" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000250875_66.fasta</t>
+          <t>label_GCF_000250875_54.fasta</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.9168781434729725</v>
+        <v>0.8581851002034431</v>
       </c>
       <c r="C52" t="n">
-        <v>0.04743636838633791</v>
+        <v>0.06953426532794402</v>
       </c>
       <c r="D52" t="n">
-        <v>0.03568548814064499</v>
+        <v>0.04680594950970734</v>
       </c>
       <c r="E52" t="n">
-        <v>2.227101968591756e-14</v>
+        <v>0.00508321464073161</v>
       </c>
       <c r="F52" t="n">
-        <v>2.227101968591756e-14</v>
+        <v>0.02039147031817412</v>
       </c>
       <c r="G52" t="n">
-        <v>0.9168781434729725</v>
+        <v>0.8581851002034431</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
@@ -2088,26 +2088,26 @@
     <row r="53">
       <c r="A53" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000250875_69.fasta</t>
+          <t>label_GCF_000250875_55.fasta</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.8756236780334745</v>
+        <v>0.8436219967325487</v>
       </c>
       <c r="C53" t="n">
-        <v>0.07620872847849722</v>
+        <v>0.09209330390790413</v>
       </c>
       <c r="D53" t="n">
-        <v>0.04816759348798357</v>
+        <v>0.04176784339574772</v>
       </c>
       <c r="E53" t="n">
-        <v>2.235051649277896e-14</v>
+        <v>0.003386733032294731</v>
       </c>
       <c r="F53" t="n">
-        <v>2.235051649277896e-14</v>
+        <v>0.01913012293150465</v>
       </c>
       <c r="G53" t="n">
-        <v>0.8756236780334745</v>
+        <v>0.8436219967325487</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
@@ -2118,26 +2118,26 @@
     <row r="54">
       <c r="A54" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000250875_70.fasta</t>
+          <t>label_GCF_000250875_58.fasta</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.8767752811843785</v>
+        <v>0.8516673337853073</v>
       </c>
       <c r="C54" t="n">
-        <v>0.07637044890501486</v>
+        <v>0.07949461599619127</v>
       </c>
       <c r="D54" t="n">
-        <v>0.04685426991056185</v>
+        <v>0.04575382527737538</v>
       </c>
       <c r="E54" t="n">
-        <v>2.234580851678936e-14</v>
+        <v>0.002962999285258981</v>
       </c>
       <c r="F54" t="n">
-        <v>2.234580851678936e-14</v>
+        <v>0.02012122565586707</v>
       </c>
       <c r="G54" t="n">
-        <v>0.8767752811843785</v>
+        <v>0.8516673337853073</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
@@ -2148,26 +2148,26 @@
     <row r="55">
       <c r="A55" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000250875_78.fasta</t>
+          <t>label_GCF_000250875_61.fasta</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.8796970202949882</v>
+        <v>0.8043230195928465</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0714525591857442</v>
+        <v>0.126991537492593</v>
       </c>
       <c r="D55" t="n">
-        <v>0.04885042051922284</v>
+        <v>0.0432715042649937</v>
       </c>
       <c r="E55" t="n">
-        <v>2.233426968266836e-14</v>
+        <v>0.004680844035292128</v>
       </c>
       <c r="F55" t="n">
-        <v>2.233426968266836e-14</v>
+        <v>0.0207330946142747</v>
       </c>
       <c r="G55" t="n">
-        <v>0.8796970202949882</v>
+        <v>0.8043230195928465</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
@@ -2178,26 +2178,26 @@
     <row r="56">
       <c r="A56" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000250875_79.fasta</t>
+          <t>label_GCF_000250875_63.fasta</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.8855044294855875</v>
+        <v>0.8883932939941855</v>
       </c>
       <c r="C56" t="n">
-        <v>0.06756951034654822</v>
+        <v>0.03930518541738753</v>
       </c>
       <c r="D56" t="n">
-        <v>0.04692606013327396</v>
+        <v>0.04619847435819979</v>
       </c>
       <c r="E56" t="n">
-        <v>3.456787060785756e-11</v>
+        <v>0.00549379567643449</v>
       </c>
       <c r="F56" t="n">
-        <v>2.234249871663841e-14</v>
+        <v>0.02060925055379268</v>
       </c>
       <c r="G56" t="n">
-        <v>0.8855044294855875</v>
+        <v>0.8883932939941855</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
@@ -2208,26 +2208,26 @@
     <row r="57">
       <c r="A57" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000250875_90.fasta</t>
+          <t>label_GCF_000250875_68.fasta</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.8915759062571752</v>
+        <v>0.85320983636204</v>
       </c>
       <c r="C57" t="n">
-        <v>0.06036342765927816</v>
+        <v>0.07638306717518467</v>
       </c>
       <c r="D57" t="n">
-        <v>0.04806066608335641</v>
+        <v>0.04642746650983914</v>
       </c>
       <c r="E57" t="n">
-        <v>1.679432335825464e-13</v>
+        <v>0.001818649267045465</v>
       </c>
       <c r="F57" t="n">
-        <v>2.230059779799716e-14</v>
+        <v>0.02216098068589079</v>
       </c>
       <c r="G57" t="n">
-        <v>0.8915759062571752</v>
+        <v>0.85320983636204</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
@@ -2238,26 +2238,26 @@
     <row r="58">
       <c r="A58" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000250875_93.fasta</t>
+          <t>label_GCF_000250875_72.fasta</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.8774374657831006</v>
+        <v>0.7689011201674092</v>
       </c>
       <c r="C58" t="n">
-        <v>0.07793129446582783</v>
+        <v>0.1665118694447506</v>
       </c>
       <c r="D58" t="n">
-        <v>0.04463123975096003</v>
+        <v>0.04151301774397326</v>
       </c>
       <c r="E58" t="n">
-        <v>8.92634902821654e-14</v>
+        <v>0.002905503587747476</v>
       </c>
       <c r="F58" t="n">
-        <v>2.23334728130969e-14</v>
+        <v>0.02016848905611957</v>
       </c>
       <c r="G58" t="n">
-        <v>0.8774374657831006</v>
+        <v>0.7689011201674092</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
@@ -2268,26 +2268,26 @@
     <row r="59">
       <c r="A59" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000250875_98.fasta</t>
+          <t>label_GCF_000250875_73.fasta</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.878196497531147</v>
+        <v>0.8195243655107614</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0736962386748634</v>
+        <v>0.1076108890924042</v>
       </c>
       <c r="D59" t="n">
-        <v>0.04810726379394487</v>
+        <v>0.03863027717736829</v>
       </c>
       <c r="E59" t="n">
-        <v>2.233491646829794e-14</v>
+        <v>0.01323063184368617</v>
       </c>
       <c r="F59" t="n">
-        <v>2.233491646829794e-14</v>
+        <v>0.02100383637578004</v>
       </c>
       <c r="G59" t="n">
-        <v>0.878196497531147</v>
+        <v>0.8195243655107614</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
@@ -2298,26 +2298,26 @@
     <row r="60">
       <c r="A60" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000250875_100.fasta</t>
+          <t>label_GCF_000250875_76.fasta</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.8591849640703323</v>
+        <v>0.8904468555178092</v>
       </c>
       <c r="C60" t="n">
-        <v>0.07484764035835814</v>
+        <v>0.03187095251942981</v>
       </c>
       <c r="D60" t="n">
-        <v>0.04264813048388812</v>
+        <v>0.04723857616757118</v>
       </c>
       <c r="E60" t="n">
-        <v>0.001259743981619608</v>
+        <v>0.00974802212263404</v>
       </c>
       <c r="F60" t="n">
-        <v>0.02205952110580188</v>
+        <v>0.02069559367255578</v>
       </c>
       <c r="G60" t="n">
-        <v>0.8591849640703323</v>
+        <v>0.8904468555178092</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
@@ -2328,26 +2328,26 @@
     <row r="61">
       <c r="A61" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000250875_102.fasta</t>
+          <t>label_GCF_000250875_77.fasta</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.8192643080754429</v>
+        <v>0.8983041040507864</v>
       </c>
       <c r="C61" t="n">
-        <v>0.1152485680732373</v>
+        <v>0.03051433925579292</v>
       </c>
       <c r="D61" t="n">
-        <v>0.04254800938642705</v>
+        <v>0.04481227619370548</v>
       </c>
       <c r="E61" t="n">
-        <v>0.00162905753257503</v>
+        <v>0.006343867440251372</v>
       </c>
       <c r="F61" t="n">
-        <v>0.02131005693231767</v>
+        <v>0.0200254130594638</v>
       </c>
       <c r="G61" t="n">
-        <v>0.8192643080754429</v>
+        <v>0.8983041040507864</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
@@ -2358,26 +2358,26 @@
     <row r="62">
       <c r="A62" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000250875_12.fasta</t>
+          <t>label_GCF_000250875_82.fasta</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.7659124605087267</v>
+        <v>0.9040720448880245</v>
       </c>
       <c r="C62" t="n">
-        <v>0.1332182695179859</v>
+        <v>0.01573614938109519</v>
       </c>
       <c r="D62" t="n">
-        <v>0.05234682295855384</v>
+        <v>0.04266979426401804</v>
       </c>
       <c r="E62" t="n">
-        <v>0.02098123319802664</v>
+        <v>0.02077839562484503</v>
       </c>
       <c r="F62" t="n">
-        <v>0.02754121381670679</v>
+        <v>0.01674361584201715</v>
       </c>
       <c r="G62" t="n">
-        <v>0.7659124605087267</v>
+        <v>0.9040720448880245</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
@@ -2388,26 +2388,26 @@
     <row r="63">
       <c r="A63" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000250875_13.fasta</t>
+          <t>label_GCF_000250875_87.fasta</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.8462952829270862</v>
+        <v>0.7674063288443901</v>
       </c>
       <c r="C63" t="n">
-        <v>0.09409333265576837</v>
+        <v>0.1661900917361455</v>
       </c>
       <c r="D63" t="n">
-        <v>0.03833097942468489</v>
+        <v>0.04119120548147292</v>
       </c>
       <c r="E63" t="n">
-        <v>0.00196447128783384</v>
+        <v>0.003500565144423177</v>
       </c>
       <c r="F63" t="n">
-        <v>0.01931593370462662</v>
+        <v>0.02171180879356841</v>
       </c>
       <c r="G63" t="n">
-        <v>0.8462952829270862</v>
+        <v>0.7674063288443901</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>
@@ -2418,26 +2418,26 @@
     <row r="64">
       <c r="A64" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000250875_19.fasta</t>
+          <t>label_GCF_000250875_99.fasta</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.8463978672142249</v>
+        <v>0.8466814380543518</v>
       </c>
       <c r="C64" t="n">
-        <v>0.08746100900971328</v>
+        <v>0.08664580759900312</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0434366297500508</v>
+        <v>0.04184828292099758</v>
       </c>
       <c r="E64" t="n">
-        <v>0.00348186226804071</v>
+        <v>0.005019237271538604</v>
       </c>
       <c r="F64" t="n">
-        <v>0.01922263175797042</v>
+        <v>0.01980523415410896</v>
       </c>
       <c r="G64" t="n">
-        <v>0.8463978672142249</v>
+        <v>0.8466814380543518</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
@@ -2448,26 +2448,26 @@
     <row r="65">
       <c r="A65" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000250875_2.fasta</t>
+          <t>label_GCF_000250875_15.fasta</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.6825972579543857</v>
+        <v>0.8439570912927182</v>
       </c>
       <c r="C65" t="n">
-        <v>0.2452875987044819</v>
+        <v>0.09768141001436492</v>
       </c>
       <c r="D65" t="n">
-        <v>0.04428913644384364</v>
+        <v>0.02874352434465528</v>
       </c>
       <c r="E65" t="n">
-        <v>0.002998179925453137</v>
+        <v>0.004074531905750221</v>
       </c>
       <c r="F65" t="n">
-        <v>0.02482782697183549</v>
+        <v>0.02554344244251135</v>
       </c>
       <c r="G65" t="n">
-        <v>0.6825972579543857</v>
+        <v>0.8439570912927182</v>
       </c>
       <c r="H65" t="inlineStr">
         <is>
@@ -2478,26 +2478,26 @@
     <row r="66">
       <c r="A66" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000250875_46.fasta</t>
+          <t>label_GCF_000250875_16.fasta</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.873127427965681</v>
+        <v>0.8222770030846082</v>
       </c>
       <c r="C66" t="n">
-        <v>0.05302566291473353</v>
+        <v>0.1166294522777524</v>
       </c>
       <c r="D66" t="n">
-        <v>0.05015289317725044</v>
+        <v>0.02726025219359448</v>
       </c>
       <c r="E66" t="n">
-        <v>0.002093612239233062</v>
+        <v>0.00866470736890047</v>
       </c>
       <c r="F66" t="n">
-        <v>0.02160040370310187</v>
+        <v>0.02516858507514449</v>
       </c>
       <c r="G66" t="n">
-        <v>0.873127427965681</v>
+        <v>0.8222770030846082</v>
       </c>
       <c r="H66" t="inlineStr">
         <is>
@@ -2508,26 +2508,26 @@
     <row r="67">
       <c r="A67" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000250875_5.fasta</t>
+          <t>label_GCF_000250875_22.fasta</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.903853801292839</v>
+        <v>0.8251116071799945</v>
       </c>
       <c r="C67" t="n">
-        <v>0.00767533683041044</v>
+        <v>0.1125016847803307</v>
       </c>
       <c r="D67" t="n">
-        <v>0.05230751807986179</v>
+        <v>0.02691219711412525</v>
       </c>
       <c r="E67" t="n">
-        <v>0.01770501350363696</v>
+        <v>0.009997558714897565</v>
       </c>
       <c r="F67" t="n">
-        <v>0.01845833029325183</v>
+        <v>0.02547695221065186</v>
       </c>
       <c r="G67" t="n">
-        <v>0.903853801292839</v>
+        <v>0.8251116071799945</v>
       </c>
       <c r="H67" t="inlineStr">
         <is>
@@ -2538,26 +2538,26 @@
     <row r="68">
       <c r="A68" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000250875_54.fasta</t>
+          <t>label_GCF_000250875_23.fasta</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.8581851002034431</v>
+        <v>0.8714959272593151</v>
       </c>
       <c r="C68" t="n">
-        <v>0.06953426532794402</v>
+        <v>0.06089675049698336</v>
       </c>
       <c r="D68" t="n">
-        <v>0.04680594950970734</v>
+        <v>0.03377251658219464</v>
       </c>
       <c r="E68" t="n">
-        <v>0.00508321464073161</v>
+        <v>0.006727065439928309</v>
       </c>
       <c r="F68" t="n">
-        <v>0.02039147031817412</v>
+        <v>0.02710774022157858</v>
       </c>
       <c r="G68" t="n">
-        <v>0.8581851002034431</v>
+        <v>0.8714959272593151</v>
       </c>
       <c r="H68" t="inlineStr">
         <is>
@@ -2568,26 +2568,26 @@
     <row r="69">
       <c r="A69" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000250875_55.fasta</t>
+          <t>label_GCF_000250875_28.fasta</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.8436219967325487</v>
+        <v>0.8664772160867202</v>
       </c>
       <c r="C69" t="n">
-        <v>0.09209330390790413</v>
+        <v>0.05946137023815633</v>
       </c>
       <c r="D69" t="n">
-        <v>0.04176784339574772</v>
+        <v>0.01886753451866828</v>
       </c>
       <c r="E69" t="n">
-        <v>0.003386733032294731</v>
+        <v>0.01631885680950673</v>
       </c>
       <c r="F69" t="n">
-        <v>0.01913012293150465</v>
+        <v>0.03887502234694853</v>
       </c>
       <c r="G69" t="n">
-        <v>0.8436219967325487</v>
+        <v>0.8664772160867202</v>
       </c>
       <c r="H69" t="inlineStr">
         <is>
@@ -2598,26 +2598,26 @@
     <row r="70">
       <c r="A70" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000250875_58.fasta</t>
+          <t>label_GCF_000250875_29.fasta</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.8516673337853073</v>
+        <v>0.8882869927825985</v>
       </c>
       <c r="C70" t="n">
-        <v>0.07949461599619127</v>
+        <v>0.01210593004594037</v>
       </c>
       <c r="D70" t="n">
-        <v>0.04575382527737538</v>
+        <v>0.02118131353479109</v>
       </c>
       <c r="E70" t="n">
-        <v>0.002962999285258981</v>
+        <v>0.03597460966197639</v>
       </c>
       <c r="F70" t="n">
-        <v>0.02012122565586707</v>
+        <v>0.04245115397469367</v>
       </c>
       <c r="G70" t="n">
-        <v>0.8516673337853073</v>
+        <v>0.8882869927825985</v>
       </c>
       <c r="H70" t="inlineStr">
         <is>
@@ -2628,26 +2628,26 @@
     <row r="71">
       <c r="A71" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000250875_61.fasta</t>
+          <t>label_GCF_000250875_3.fasta</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.8043230195928465</v>
+        <v>0.8944575528509103</v>
       </c>
       <c r="C71" t="n">
-        <v>0.126991537492593</v>
+        <v>0.02542181639777893</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0432715042649937</v>
+        <v>0.04016206097649223</v>
       </c>
       <c r="E71" t="n">
-        <v>0.004680844035292128</v>
+        <v>0.01042188836458492</v>
       </c>
       <c r="F71" t="n">
-        <v>0.0207330946142747</v>
+        <v>0.02953668141023358</v>
       </c>
       <c r="G71" t="n">
-        <v>0.8043230195928465</v>
+        <v>0.8944575528509103</v>
       </c>
       <c r="H71" t="inlineStr">
         <is>
@@ -2658,26 +2658,26 @@
     <row r="72">
       <c r="A72" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000250875_63.fasta</t>
+          <t>label_GCF_000250875_31.fasta</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.8883932939941855</v>
+        <v>0.9098941564989564</v>
       </c>
       <c r="C72" t="n">
-        <v>0.03930518541738753</v>
+        <v>0.00430537310933927</v>
       </c>
       <c r="D72" t="n">
-        <v>0.04619847435819979</v>
+        <v>0.0194683283349792</v>
       </c>
       <c r="E72" t="n">
-        <v>0.00549379567643449</v>
+        <v>0.02957962563819644</v>
       </c>
       <c r="F72" t="n">
-        <v>0.02060925055379268</v>
+        <v>0.0367525164185286</v>
       </c>
       <c r="G72" t="n">
-        <v>0.8883932939941855</v>
+        <v>0.9098941564989564</v>
       </c>
       <c r="H72" t="inlineStr">
         <is>
@@ -2688,26 +2688,26 @@
     <row r="73">
       <c r="A73" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000250875_68.fasta</t>
+          <t>label_GCF_000250875_36.fasta</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.85320983636204</v>
+        <v>0.9074705760642736</v>
       </c>
       <c r="C73" t="n">
-        <v>0.07638306717518467</v>
+        <v>0.004850660044038265</v>
       </c>
       <c r="D73" t="n">
-        <v>0.04642746650983914</v>
+        <v>0.02134248269194301</v>
       </c>
       <c r="E73" t="n">
-        <v>0.001818649267045465</v>
+        <v>0.03649760398199973</v>
       </c>
       <c r="F73" t="n">
-        <v>0.02216098068589079</v>
+        <v>0.02983867721774532</v>
       </c>
       <c r="G73" t="n">
-        <v>0.85320983636204</v>
+        <v>0.9074705760642736</v>
       </c>
       <c r="H73" t="inlineStr">
         <is>
@@ -2718,26 +2718,26 @@
     <row r="74">
       <c r="A74" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000250875_72.fasta</t>
+          <t>label_GCF_000250875_37.fasta</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.7689011201674092</v>
+        <v>0.8567505592554849</v>
       </c>
       <c r="C74" t="n">
-        <v>0.1665118694447506</v>
+        <v>0.08028024704334803</v>
       </c>
       <c r="D74" t="n">
-        <v>0.04151301774397326</v>
+        <v>0.02997170756508141</v>
       </c>
       <c r="E74" t="n">
-        <v>0.002905503587747476</v>
+        <v>0.004693118514431217</v>
       </c>
       <c r="F74" t="n">
-        <v>0.02016848905611957</v>
+        <v>0.02830436762165434</v>
       </c>
       <c r="G74" t="n">
-        <v>0.7689011201674092</v>
+        <v>0.8567505592554849</v>
       </c>
       <c r="H74" t="inlineStr">
         <is>
@@ -2748,26 +2748,26 @@
     <row r="75">
       <c r="A75" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000250875_73.fasta</t>
+          <t>label_GCF_000250875_4.fasta</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.8195243655107614</v>
+        <v>0.8676451066287715</v>
       </c>
       <c r="C75" t="n">
-        <v>0.1076108890924042</v>
+        <v>0.07274142056828317</v>
       </c>
       <c r="D75" t="n">
-        <v>0.03863027717736829</v>
+        <v>0.01904064453741749</v>
       </c>
       <c r="E75" t="n">
-        <v>0.01323063184368617</v>
+        <v>0.009284880643678453</v>
       </c>
       <c r="F75" t="n">
-        <v>0.02100383637578004</v>
+        <v>0.03128794762184948</v>
       </c>
       <c r="G75" t="n">
-        <v>0.8195243655107614</v>
+        <v>0.8676451066287715</v>
       </c>
       <c r="H75" t="inlineStr">
         <is>
@@ -2778,26 +2778,26 @@
     <row r="76">
       <c r="A76" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000250875_76.fasta</t>
+          <t>label_GCF_000250875_42.fasta</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.8904468555178092</v>
+        <v>0.9161479547605385</v>
       </c>
       <c r="C76" t="n">
-        <v>0.03187095251942981</v>
+        <v>0.006706792771244718</v>
       </c>
       <c r="D76" t="n">
-        <v>0.04723857616757118</v>
+        <v>0.01562025554543245</v>
       </c>
       <c r="E76" t="n">
-        <v>0.00974802212263404</v>
+        <v>0.02689783094931511</v>
       </c>
       <c r="F76" t="n">
-        <v>0.02069559367255578</v>
+        <v>0.03462716597346931</v>
       </c>
       <c r="G76" t="n">
-        <v>0.8904468555178092</v>
+        <v>0.9161479547605385</v>
       </c>
       <c r="H76" t="inlineStr">
         <is>
@@ -2808,26 +2808,26 @@
     <row r="77">
       <c r="A77" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000250875_77.fasta</t>
+          <t>label_GCF_000250875_49.fasta</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.8983041040507864</v>
+        <v>0.8494718614718052</v>
       </c>
       <c r="C77" t="n">
-        <v>0.03051433925579292</v>
+        <v>0.001144460074838264</v>
       </c>
       <c r="D77" t="n">
-        <v>0.04481227619370548</v>
+        <v>0.0109616855542982</v>
       </c>
       <c r="E77" t="n">
-        <v>0.006343867440251372</v>
+        <v>0.08132790312525758</v>
       </c>
       <c r="F77" t="n">
-        <v>0.0200254130594638</v>
+        <v>0.05709408977380084</v>
       </c>
       <c r="G77" t="n">
-        <v>0.8983041040507864</v>
+        <v>0.8494718614718052</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
@@ -2838,56 +2838,56 @@
     <row r="78">
       <c r="A78" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000250875_82.fasta</t>
+          <t>label_GCF_000250875_6.fasta</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.9040720448880245</v>
+        <v>0.3969796525505596</v>
       </c>
       <c r="C78" t="n">
-        <v>0.01573614938109519</v>
+        <v>0.4024487889557306</v>
       </c>
       <c r="D78" t="n">
-        <v>0.04266979426401804</v>
+        <v>0.06668769316525443</v>
       </c>
       <c r="E78" t="n">
-        <v>0.02077839562484503</v>
+        <v>0.05145804552248105</v>
       </c>
       <c r="F78" t="n">
-        <v>0.01674361584201715</v>
+        <v>0.0824258198059744</v>
       </c>
       <c r="G78" t="n">
-        <v>0.9040720448880245</v>
+        <v>0.4024487889557306</v>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>s__Sutterella parvirubra</t>
+          <t>s__Sutterella sp900543805</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000250875_87.fasta</t>
+          <t>label_GCF_000250875_62.fasta</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0.7674063288443901</v>
+        <v>0.8984570545882551</v>
       </c>
       <c r="C79" t="n">
-        <v>0.1661900917361455</v>
+        <v>0.0179515967000189</v>
       </c>
       <c r="D79" t="n">
-        <v>0.04119120548147292</v>
+        <v>0.05031656957224782</v>
       </c>
       <c r="E79" t="n">
-        <v>0.003500565144423177</v>
+        <v>0.004171922028441456</v>
       </c>
       <c r="F79" t="n">
-        <v>0.02171180879356841</v>
+        <v>0.02910285711103669</v>
       </c>
       <c r="G79" t="n">
-        <v>0.7674063288443901</v>
+        <v>0.8984570545882551</v>
       </c>
       <c r="H79" t="inlineStr">
         <is>
@@ -2898,26 +2898,26 @@
     <row r="80">
       <c r="A80" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000250875_99.fasta</t>
+          <t>label_GCF_000250875_64.fasta</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0.8466814380543518</v>
+        <v>0.8173082634744147</v>
       </c>
       <c r="C80" t="n">
-        <v>0.08664580759900312</v>
+        <v>0.1262358583539785</v>
       </c>
       <c r="D80" t="n">
-        <v>0.04184828292099758</v>
+        <v>0.02681692186480476</v>
       </c>
       <c r="E80" t="n">
-        <v>0.005019237271538604</v>
+        <v>0.002291046123859249</v>
       </c>
       <c r="F80" t="n">
-        <v>0.01980523415410896</v>
+        <v>0.02734791018294285</v>
       </c>
       <c r="G80" t="n">
-        <v>0.8466814380543518</v>
+        <v>0.8173082634744147</v>
       </c>
       <c r="H80" t="inlineStr">
         <is>
@@ -2928,26 +2928,26 @@
     <row r="81">
       <c r="A81" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000250875_15.fasta</t>
+          <t>label_GCF_000250875_7.fasta</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0.8439570912927182</v>
+        <v>0.9266163265000849</v>
       </c>
       <c r="C81" t="n">
-        <v>0.09768141001436492</v>
+        <v>0.00286674458014781</v>
       </c>
       <c r="D81" t="n">
-        <v>0.02874352434465528</v>
+        <v>0.02557465339867883</v>
       </c>
       <c r="E81" t="n">
-        <v>0.004074531905750221</v>
+        <v>0.01273521992575321</v>
       </c>
       <c r="F81" t="n">
-        <v>0.02554344244251135</v>
+        <v>0.03220705559533533</v>
       </c>
       <c r="G81" t="n">
-        <v>0.8439570912927182</v>
+        <v>0.9266163265000849</v>
       </c>
       <c r="H81" t="inlineStr">
         <is>
@@ -2958,26 +2958,26 @@
     <row r="82">
       <c r="A82" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000250875_16.fasta</t>
+          <t>label_GCF_000250875_71.fasta</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0.8222770030846082</v>
+        <v>0.8880874074868581</v>
       </c>
       <c r="C82" t="n">
-        <v>0.1166294522777524</v>
+        <v>0.02463941124369018</v>
       </c>
       <c r="D82" t="n">
-        <v>0.02726025219359448</v>
+        <v>0.05311514238164618</v>
       </c>
       <c r="E82" t="n">
-        <v>0.00866470736890047</v>
+        <v>0.005559709248512507</v>
       </c>
       <c r="F82" t="n">
-        <v>0.02516858507514449</v>
+        <v>0.02859832963929288</v>
       </c>
       <c r="G82" t="n">
-        <v>0.8222770030846082</v>
+        <v>0.8880874074868581</v>
       </c>
       <c r="H82" t="inlineStr">
         <is>
@@ -2988,26 +2988,26 @@
     <row r="83">
       <c r="A83" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000250875_22.fasta</t>
+          <t>label_GCF_000250875_81.fasta</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0.8251116071799945</v>
+        <v>0.9010656099654364</v>
       </c>
       <c r="C83" t="n">
-        <v>0.1125016847803307</v>
+        <v>0.02607658721815712</v>
       </c>
       <c r="D83" t="n">
-        <v>0.02691219711412525</v>
+        <v>0.03732499435780621</v>
       </c>
       <c r="E83" t="n">
-        <v>0.009997558714897565</v>
+        <v>0.00251439218780006</v>
       </c>
       <c r="F83" t="n">
-        <v>0.02547695221065186</v>
+        <v>0.0330184162708003</v>
       </c>
       <c r="G83" t="n">
-        <v>0.8251116071799945</v>
+        <v>0.9010656099654364</v>
       </c>
       <c r="H83" t="inlineStr">
         <is>
@@ -3018,26 +3018,26 @@
     <row r="84">
       <c r="A84" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000250875_23.fasta</t>
+          <t>label_GCF_000250875_83.fasta</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0.8714959272593151</v>
+        <v>0.744965058446976</v>
       </c>
       <c r="C84" t="n">
-        <v>0.06089675049698336</v>
+        <v>0.1956047859993431</v>
       </c>
       <c r="D84" t="n">
-        <v>0.03377251658219464</v>
+        <v>0.02118558450704632</v>
       </c>
       <c r="E84" t="n">
-        <v>0.006727065439928309</v>
+        <v>0.01614396063592619</v>
       </c>
       <c r="F84" t="n">
-        <v>0.02710774022157858</v>
+        <v>0.02210061041070852</v>
       </c>
       <c r="G84" t="n">
-        <v>0.8714959272593151</v>
+        <v>0.744965058446976</v>
       </c>
       <c r="H84" t="inlineStr">
         <is>
@@ -3048,26 +3048,26 @@
     <row r="85">
       <c r="A85" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000250875_28.fasta</t>
+          <t>label_GCF_000250875_85.fasta</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0.8664772160867202</v>
+        <v>0.8934562136266011</v>
       </c>
       <c r="C85" t="n">
-        <v>0.05946137023815633</v>
+        <v>0.02712095379265907</v>
       </c>
       <c r="D85" t="n">
-        <v>0.01886753451866828</v>
+        <v>0.03328970377649154</v>
       </c>
       <c r="E85" t="n">
-        <v>0.01631885680950673</v>
+        <v>0.01664521476465465</v>
       </c>
       <c r="F85" t="n">
-        <v>0.03887502234694853</v>
+        <v>0.02948791403959379</v>
       </c>
       <c r="G85" t="n">
-        <v>0.8664772160867202</v>
+        <v>0.8934562136266011</v>
       </c>
       <c r="H85" t="inlineStr">
         <is>
@@ -3078,26 +3078,26 @@
     <row r="86">
       <c r="A86" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000250875_29.fasta</t>
+          <t>label_GCF_000250875_89.fasta</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0.8882869927825985</v>
+        <v>0.9085719902779635</v>
       </c>
       <c r="C86" t="n">
-        <v>0.01210593004594037</v>
+        <v>0.01930237196112128</v>
       </c>
       <c r="D86" t="n">
-        <v>0.02118131353479109</v>
+        <v>0.03977171504129562</v>
       </c>
       <c r="E86" t="n">
-        <v>0.03597460966197639</v>
+        <v>0.002032966896561978</v>
       </c>
       <c r="F86" t="n">
-        <v>0.04245115397469367</v>
+        <v>0.03032095582305768</v>
       </c>
       <c r="G86" t="n">
-        <v>0.8882869927825985</v>
+        <v>0.9085719902779635</v>
       </c>
       <c r="H86" t="inlineStr">
         <is>
@@ -3108,26 +3108,26 @@
     <row r="87">
       <c r="A87" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000250875_3.fasta</t>
+          <t>label_GCF_000250875_94.fasta</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0.8944575528509103</v>
+        <v>0.8516949313089814</v>
       </c>
       <c r="C87" t="n">
-        <v>0.02542181639777893</v>
+        <v>0.08525388359092441</v>
       </c>
       <c r="D87" t="n">
-        <v>0.04016206097649223</v>
+        <v>0.03242369541728131</v>
       </c>
       <c r="E87" t="n">
-        <v>0.01042188836458492</v>
+        <v>0.002740872370260869</v>
       </c>
       <c r="F87" t="n">
-        <v>0.02953668141023358</v>
+        <v>0.02788661731255197</v>
       </c>
       <c r="G87" t="n">
-        <v>0.8944575528509103</v>
+        <v>0.8516949313089814</v>
       </c>
       <c r="H87" t="inlineStr">
         <is>
@@ -3138,26 +3138,26 @@
     <row r="88">
       <c r="A88" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000250875_31.fasta</t>
+          <t>label_GCF_000250875_95.fasta</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0.9098941564989564</v>
+        <v>0.9034406758471226</v>
       </c>
       <c r="C88" t="n">
-        <v>0.00430537310933927</v>
+        <v>0.01426747943711184</v>
       </c>
       <c r="D88" t="n">
-        <v>0.0194683283349792</v>
+        <v>0.05122568636907705</v>
       </c>
       <c r="E88" t="n">
-        <v>0.02957962563819644</v>
+        <v>0.001641501941314575</v>
       </c>
       <c r="F88" t="n">
-        <v>0.0367525164185286</v>
+        <v>0.02942465640537378</v>
       </c>
       <c r="G88" t="n">
-        <v>0.9098941564989564</v>
+        <v>0.9034406758471226</v>
       </c>
       <c r="H88" t="inlineStr">
         <is>
@@ -3168,26 +3168,26 @@
     <row r="89">
       <c r="A89" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000250875_36.fasta</t>
+          <t>label_GCF_000250875_97.fasta</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0.9074705760642736</v>
+        <v>0.9179659288432206</v>
       </c>
       <c r="C89" t="n">
-        <v>0.004850660044038265</v>
+        <v>0.009399504875914384</v>
       </c>
       <c r="D89" t="n">
-        <v>0.02134248269194301</v>
+        <v>0.04122619735091092</v>
       </c>
       <c r="E89" t="n">
-        <v>0.03649760398199973</v>
+        <v>0.001482566299223042</v>
       </c>
       <c r="F89" t="n">
-        <v>0.02983867721774532</v>
+        <v>0.02992580263073108</v>
       </c>
       <c r="G89" t="n">
-        <v>0.9074705760642736</v>
+        <v>0.9179659288432206</v>
       </c>
       <c r="H89" t="inlineStr">
         <is>
@@ -3198,26 +3198,26 @@
     <row r="90">
       <c r="A90" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000250875_37.fasta</t>
+          <t>label_GCF_000250875_101.fasta</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0.8567505592554849</v>
+        <v>0.8977361358570428</v>
       </c>
       <c r="C90" t="n">
-        <v>0.08028024704334803</v>
+        <v>0.03064734914924791</v>
       </c>
       <c r="D90" t="n">
-        <v>0.02997170756508141</v>
+        <v>0.04204553304393849</v>
       </c>
       <c r="E90" t="n">
-        <v>0.004693118514431217</v>
+        <v>0.003961823057389314</v>
       </c>
       <c r="F90" t="n">
-        <v>0.02830436762165434</v>
+        <v>0.02560915889238145</v>
       </c>
       <c r="G90" t="n">
-        <v>0.8567505592554849</v>
+        <v>0.8977361358570428</v>
       </c>
       <c r="H90" t="inlineStr">
         <is>
@@ -3228,26 +3228,26 @@
     <row r="91">
       <c r="A91" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000250875_4.fasta</t>
+          <t>label_GCF_000250875_103.fasta</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0.8676451066287715</v>
+        <v>0.8746643109727504</v>
       </c>
       <c r="C91" t="n">
-        <v>0.07274142056828317</v>
+        <v>0.05307525025645785</v>
       </c>
       <c r="D91" t="n">
-        <v>0.01904064453741749</v>
+        <v>0.04096856532517893</v>
       </c>
       <c r="E91" t="n">
-        <v>0.009284880643678453</v>
+        <v>0.005653191216501402</v>
       </c>
       <c r="F91" t="n">
-        <v>0.03128794762184948</v>
+        <v>0.02563868222911127</v>
       </c>
       <c r="G91" t="n">
-        <v>0.8676451066287715</v>
+        <v>0.8746643109727504</v>
       </c>
       <c r="H91" t="inlineStr">
         <is>
@@ -3258,26 +3258,26 @@
     <row r="92">
       <c r="A92" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000250875_42.fasta</t>
+          <t>label_GCF_000250875_14.fasta</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0.9161479547605385</v>
+        <v>0.7221329271601538</v>
       </c>
       <c r="C92" t="n">
-        <v>0.006706792771244718</v>
+        <v>0.2259570573554048</v>
       </c>
       <c r="D92" t="n">
-        <v>0.01562025554543245</v>
+        <v>0.02427370884981804</v>
       </c>
       <c r="E92" t="n">
-        <v>0.02689783094931511</v>
+        <v>0.005116391533987113</v>
       </c>
       <c r="F92" t="n">
-        <v>0.03462716597346931</v>
+        <v>0.02251991510063641</v>
       </c>
       <c r="G92" t="n">
-        <v>0.9161479547605385</v>
+        <v>0.7221329271601538</v>
       </c>
       <c r="H92" t="inlineStr">
         <is>
@@ -3288,26 +3288,26 @@
     <row r="93">
       <c r="A93" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000250875_49.fasta</t>
+          <t>label_GCF_000250875_18.fasta</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>0.8494718614718052</v>
+        <v>0.8996285649741078</v>
       </c>
       <c r="C93" t="n">
-        <v>0.001144460074838264</v>
+        <v>0.01330804733649528</v>
       </c>
       <c r="D93" t="n">
-        <v>0.0109616855542982</v>
+        <v>0.04228896907353376</v>
       </c>
       <c r="E93" t="n">
-        <v>0.08132790312525758</v>
+        <v>0.01647450022608335</v>
       </c>
       <c r="F93" t="n">
-        <v>0.05709408977380084</v>
+        <v>0.02829991838977983</v>
       </c>
       <c r="G93" t="n">
-        <v>0.8494718614718052</v>
+        <v>0.8996285649741078</v>
       </c>
       <c r="H93" t="inlineStr">
         <is>
@@ -3318,56 +3318,56 @@
     <row r="94">
       <c r="A94" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000250875_6.fasta</t>
+          <t>label_GCF_000250875_20.fasta</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0.3969796525505596</v>
+        <v>0.9029594469672669</v>
       </c>
       <c r="C94" t="n">
-        <v>0.4024487889557306</v>
+        <v>6.96045644048631e-05</v>
       </c>
       <c r="D94" t="n">
-        <v>0.06668769316525443</v>
+        <v>0.05430383374321423</v>
       </c>
       <c r="E94" t="n">
-        <v>0.05145804552248105</v>
+        <v>0.01801789218093157</v>
       </c>
       <c r="F94" t="n">
-        <v>0.0824258198059744</v>
+        <v>0.0246492225441824</v>
       </c>
       <c r="G94" t="n">
-        <v>0.4024487889557306</v>
+        <v>0.9029594469672669</v>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>s__Sutterella sp900543805</t>
+          <t>s__Sutterella parvirubra</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000250875_62.fasta</t>
+          <t>label_GCF_000250875_21.fasta</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>0.8984570545882551</v>
+        <v>0.7818653952569902</v>
       </c>
       <c r="C95" t="n">
-        <v>0.0179515967000189</v>
+        <v>0.1654124628174736</v>
       </c>
       <c r="D95" t="n">
-        <v>0.05031656957224782</v>
+        <v>0.02622358957795433</v>
       </c>
       <c r="E95" t="n">
-        <v>0.004171922028441456</v>
+        <v>0.005378656656563581</v>
       </c>
       <c r="F95" t="n">
-        <v>0.02910285711103669</v>
+        <v>0.02111989569101831</v>
       </c>
       <c r="G95" t="n">
-        <v>0.8984570545882551</v>
+        <v>0.7818653952569902</v>
       </c>
       <c r="H95" t="inlineStr">
         <is>
@@ -3378,26 +3378,26 @@
     <row r="96">
       <c r="A96" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000250875_64.fasta</t>
+          <t>label_GCF_000250875_24.fasta</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>0.8173082634744147</v>
+        <v>0.8962635967920449</v>
       </c>
       <c r="C96" t="n">
-        <v>0.1262358583539785</v>
+        <v>1.505224405729262e-05</v>
       </c>
       <c r="D96" t="n">
-        <v>0.02681692186480476</v>
+        <v>0.05066619953239328</v>
       </c>
       <c r="E96" t="n">
-        <v>0.002291046123859249</v>
+        <v>0.02631194239308348</v>
       </c>
       <c r="F96" t="n">
-        <v>0.02734791018294285</v>
+        <v>0.02674320903842126</v>
       </c>
       <c r="G96" t="n">
-        <v>0.8173082634744147</v>
+        <v>0.8962635967920449</v>
       </c>
       <c r="H96" t="inlineStr">
         <is>
@@ -3408,26 +3408,26 @@
     <row r="97">
       <c r="A97" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000250875_7.fasta</t>
+          <t>label_GCF_000250875_25.fasta</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>0.9266163265000849</v>
+        <v>0.8960953189476989</v>
       </c>
       <c r="C97" t="n">
-        <v>0.00286674458014781</v>
+        <v>0.0352074761432883</v>
       </c>
       <c r="D97" t="n">
-        <v>0.02557465339867883</v>
+        <v>0.03922872899666338</v>
       </c>
       <c r="E97" t="n">
-        <v>0.01273521992575321</v>
+        <v>0.003050339445768001</v>
       </c>
       <c r="F97" t="n">
-        <v>0.03220705559533533</v>
+        <v>0.02641813646658133</v>
       </c>
       <c r="G97" t="n">
-        <v>0.9266163265000849</v>
+        <v>0.8960953189476989</v>
       </c>
       <c r="H97" t="inlineStr">
         <is>
@@ -3438,26 +3438,26 @@
     <row r="98">
       <c r="A98" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000250875_71.fasta</t>
+          <t>label_GCF_000250875_32.fasta</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>0.8880874074868581</v>
+        <v>0.8901037827695706</v>
       </c>
       <c r="C98" t="n">
-        <v>0.02463941124369018</v>
+        <v>0.03501178295349703</v>
       </c>
       <c r="D98" t="n">
-        <v>0.05311514238164618</v>
+        <v>0.04310054239932026</v>
       </c>
       <c r="E98" t="n">
-        <v>0.005559709248512507</v>
+        <v>0.005654345613968464</v>
       </c>
       <c r="F98" t="n">
-        <v>0.02859832963929288</v>
+        <v>0.02612954626364365</v>
       </c>
       <c r="G98" t="n">
-        <v>0.8880874074868581</v>
+        <v>0.8901037827695706</v>
       </c>
       <c r="H98" t="inlineStr">
         <is>
@@ -3468,26 +3468,26 @@
     <row r="99">
       <c r="A99" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000250875_81.fasta</t>
+          <t>label_GCF_000250875_33.fasta</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>0.9010656099654364</v>
+        <v>0.8882852978698745</v>
       </c>
       <c r="C99" t="n">
-        <v>0.02607658721815712</v>
+        <v>0.02183600681106985</v>
       </c>
       <c r="D99" t="n">
-        <v>0.03732499435780621</v>
+        <v>0.03877041756371808</v>
       </c>
       <c r="E99" t="n">
-        <v>0.00251439218780006</v>
+        <v>0.02391153845906766</v>
       </c>
       <c r="F99" t="n">
-        <v>0.0330184162708003</v>
+        <v>0.02719673929626976</v>
       </c>
       <c r="G99" t="n">
-        <v>0.9010656099654364</v>
+        <v>0.8882852978698745</v>
       </c>
       <c r="H99" t="inlineStr">
         <is>
@@ -3498,26 +3498,26 @@
     <row r="100">
       <c r="A100" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000250875_83.fasta</t>
+          <t>label_GCF_000250875_35.fasta</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>0.744965058446976</v>
+        <v>0.9056631972336181</v>
       </c>
       <c r="C100" t="n">
-        <v>0.1956047859993431</v>
+        <v>0.03008478148101252</v>
       </c>
       <c r="D100" t="n">
-        <v>0.02118558450704632</v>
+        <v>0.03641187329492275</v>
       </c>
       <c r="E100" t="n">
-        <v>0.01614396063592619</v>
+        <v>0.002470281167031017</v>
       </c>
       <c r="F100" t="n">
-        <v>0.02210061041070852</v>
+        <v>0.02536986682341563</v>
       </c>
       <c r="G100" t="n">
-        <v>0.744965058446976</v>
+        <v>0.9056631972336181</v>
       </c>
       <c r="H100" t="inlineStr">
         <is>
@@ -3528,26 +3528,26 @@
     <row r="101">
       <c r="A101" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000250875_85.fasta</t>
+          <t>label_GCF_000250875_39.fasta</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>0.8934562136266011</v>
+        <v>0.7886436526597915</v>
       </c>
       <c r="C101" t="n">
-        <v>0.02712095379265907</v>
+        <v>0.1465308569823732</v>
       </c>
       <c r="D101" t="n">
-        <v>0.03328970377649154</v>
+        <v>0.02837643191642288</v>
       </c>
       <c r="E101" t="n">
-        <v>0.01664521476465465</v>
+        <v>0.01505778973730325</v>
       </c>
       <c r="F101" t="n">
-        <v>0.02948791403959379</v>
+        <v>0.02139126870410924</v>
       </c>
       <c r="G101" t="n">
-        <v>0.8934562136266011</v>
+        <v>0.7886436526597915</v>
       </c>
       <c r="H101" t="inlineStr">
         <is>
@@ -3558,26 +3558,26 @@
     <row r="102">
       <c r="A102" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000250875_89.fasta</t>
+          <t>label_GCF_000250875_40.fasta</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>0.9085719902779635</v>
+        <v>0.8549747668605392</v>
       </c>
       <c r="C102" t="n">
-        <v>0.01930237196112128</v>
+        <v>0.07136865534795118</v>
       </c>
       <c r="D102" t="n">
-        <v>0.03977171504129562</v>
+        <v>0.03466956316797882</v>
       </c>
       <c r="E102" t="n">
-        <v>0.002032966896561978</v>
+        <v>0.01565301440370576</v>
       </c>
       <c r="F102" t="n">
-        <v>0.03032095582305768</v>
+        <v>0.02333400021982516</v>
       </c>
       <c r="G102" t="n">
-        <v>0.9085719902779635</v>
+        <v>0.8549747668605392</v>
       </c>
       <c r="H102" t="inlineStr">
         <is>
@@ -3588,26 +3588,26 @@
     <row r="103">
       <c r="A103" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000250875_94.fasta</t>
+          <t>label_GCF_000250875_44.fasta</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>0.8516949313089814</v>
+        <v>0.8866238266732001</v>
       </c>
       <c r="C103" t="n">
-        <v>0.08525388359092441</v>
+        <v>0.04126835930389587</v>
       </c>
       <c r="D103" t="n">
-        <v>0.03242369541728131</v>
+        <v>0.03738004688159297</v>
       </c>
       <c r="E103" t="n">
-        <v>0.002740872370260869</v>
+        <v>0.008687038481691766</v>
       </c>
       <c r="F103" t="n">
-        <v>0.02788661731255197</v>
+        <v>0.02604072865961933</v>
       </c>
       <c r="G103" t="n">
-        <v>0.8516949313089814</v>
+        <v>0.8866238266732001</v>
       </c>
       <c r="H103" t="inlineStr">
         <is>
@@ -3618,26 +3618,26 @@
     <row r="104">
       <c r="A104" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000250875_95.fasta</t>
+          <t>label_GCF_000250875_47.fasta</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>0.9034406758471226</v>
+        <v>0.5855006256509875</v>
       </c>
       <c r="C104" t="n">
-        <v>0.01426747943711184</v>
+        <v>0.2917848203498771</v>
       </c>
       <c r="D104" t="n">
-        <v>0.05122568636907705</v>
+        <v>0.04334099459634094</v>
       </c>
       <c r="E104" t="n">
-        <v>0.001641501941314575</v>
+        <v>0.04616139602684344</v>
       </c>
       <c r="F104" t="n">
-        <v>0.02942465640537378</v>
+        <v>0.03321216337595109</v>
       </c>
       <c r="G104" t="n">
-        <v>0.9034406758471226</v>
+        <v>0.5855006256509875</v>
       </c>
       <c r="H104" t="inlineStr">
         <is>
@@ -3648,26 +3648,26 @@
     <row r="105">
       <c r="A105" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000250875_97.fasta</t>
+          <t>label_GCF_000250875_50.fasta</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>0.9179659288432206</v>
+        <v>0.7896032690303774</v>
       </c>
       <c r="C105" t="n">
-        <v>0.009399504875914384</v>
+        <v>0.1517996342281385</v>
       </c>
       <c r="D105" t="n">
-        <v>0.04122619735091092</v>
+        <v>0.03079732611844191</v>
       </c>
       <c r="E105" t="n">
-        <v>0.001482566299223042</v>
+        <v>0.005761133470869144</v>
       </c>
       <c r="F105" t="n">
-        <v>0.02992580263073108</v>
+        <v>0.02203863715217311</v>
       </c>
       <c r="G105" t="n">
-        <v>0.9179659288432206</v>
+        <v>0.7896032690303774</v>
       </c>
       <c r="H105" t="inlineStr">
         <is>
@@ -3678,26 +3678,26 @@
     <row r="106">
       <c r="A106" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000250875_101.fasta</t>
+          <t>label_GCF_000250875_56.fasta</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>0.8977361358570428</v>
+        <v>0.8986407315724518</v>
       </c>
       <c r="C106" t="n">
-        <v>0.03064734914924791</v>
+        <v>0.02602004529912844</v>
       </c>
       <c r="D106" t="n">
-        <v>0.04204553304393849</v>
+        <v>0.04296150554420614</v>
       </c>
       <c r="E106" t="n">
-        <v>0.003961823057389314</v>
+        <v>0.006981874131176602</v>
       </c>
       <c r="F106" t="n">
-        <v>0.02560915889238145</v>
+        <v>0.02539584345303695</v>
       </c>
       <c r="G106" t="n">
-        <v>0.8977361358570428</v>
+        <v>0.8986407315724518</v>
       </c>
       <c r="H106" t="inlineStr">
         <is>
@@ -3708,26 +3708,26 @@
     <row r="107">
       <c r="A107" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000250875_103.fasta</t>
+          <t>label_GCF_000250875_67.fasta</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>0.8746643109727504</v>
+        <v>0.9129077310020471</v>
       </c>
       <c r="C107" t="n">
-        <v>0.05307525025645785</v>
+        <v>0.000157159146829554</v>
       </c>
       <c r="D107" t="n">
-        <v>0.04096856532517893</v>
+        <v>0.02777781968915955</v>
       </c>
       <c r="E107" t="n">
-        <v>0.005653191216501402</v>
+        <v>0.03349967740104558</v>
       </c>
       <c r="F107" t="n">
-        <v>0.02563868222911127</v>
+        <v>0.02565761276091822</v>
       </c>
       <c r="G107" t="n">
-        <v>0.8746643109727504</v>
+        <v>0.9129077310020471</v>
       </c>
       <c r="H107" t="inlineStr">
         <is>
@@ -3738,26 +3738,26 @@
     <row r="108">
       <c r="A108" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000250875_14.fasta</t>
+          <t>label_GCF_000250875_8.fasta</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>0.7221329271601538</v>
+        <v>0.9127838401448101</v>
       </c>
       <c r="C108" t="n">
-        <v>0.2259570573554048</v>
+        <v>0.003226029882008292</v>
       </c>
       <c r="D108" t="n">
-        <v>0.02427370884981804</v>
+        <v>0.04953207192329872</v>
       </c>
       <c r="E108" t="n">
-        <v>0.005116391533987113</v>
+        <v>0.00762427944801994</v>
       </c>
       <c r="F108" t="n">
-        <v>0.02251991510063641</v>
+        <v>0.02683377860186303</v>
       </c>
       <c r="G108" t="n">
-        <v>0.7221329271601538</v>
+        <v>0.9127838401448101</v>
       </c>
       <c r="H108" t="inlineStr">
         <is>
@@ -3768,26 +3768,26 @@
     <row r="109">
       <c r="A109" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000250875_18.fasta</t>
+          <t>label_GCF_000250875_86.fasta</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>0.8996285649741078</v>
+        <v>0.908421967455188</v>
       </c>
       <c r="C109" t="n">
-        <v>0.01330804733649528</v>
+        <v>0.02208803578586432</v>
       </c>
       <c r="D109" t="n">
-        <v>0.04228896907353376</v>
+        <v>0.03876898674313885</v>
       </c>
       <c r="E109" t="n">
-        <v>0.01647450022608335</v>
+        <v>0.002451837690657964</v>
       </c>
       <c r="F109" t="n">
-        <v>0.02829991838977983</v>
+        <v>0.02826917232515096</v>
       </c>
       <c r="G109" t="n">
-        <v>0.8996285649741078</v>
+        <v>0.908421967455188</v>
       </c>
       <c r="H109" t="inlineStr">
         <is>
@@ -3798,26 +3798,26 @@
     <row r="110">
       <c r="A110" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000250875_20.fasta</t>
+          <t>label_GCF_000250875_88.fasta</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>0.9029594469672669</v>
+        <v>0.9143646110608167</v>
       </c>
       <c r="C110" t="n">
-        <v>6.96045644048631e-05</v>
+        <v>0.01162395189342037</v>
       </c>
       <c r="D110" t="n">
-        <v>0.05430383374321423</v>
+        <v>0.04504773835589251</v>
       </c>
       <c r="E110" t="n">
-        <v>0.01801789218093157</v>
+        <v>0.002149138226238204</v>
       </c>
       <c r="F110" t="n">
-        <v>0.0246492225441824</v>
+        <v>0.02681456046363218</v>
       </c>
       <c r="G110" t="n">
-        <v>0.9029594469672669</v>
+        <v>0.9143646110608167</v>
       </c>
       <c r="H110" t="inlineStr">
         <is>
@@ -3828,26 +3828,26 @@
     <row r="111">
       <c r="A111" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000250875_21.fasta</t>
+          <t>label_GCF_000250875_9.fasta</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>0.7818653952569902</v>
+        <v>0.8190926737211747</v>
       </c>
       <c r="C111" t="n">
-        <v>0.1654124628174736</v>
+        <v>0.1109393784087729</v>
       </c>
       <c r="D111" t="n">
-        <v>0.02622358957795433</v>
+        <v>0.03700573009725228</v>
       </c>
       <c r="E111" t="n">
-        <v>0.005378656656563581</v>
+        <v>0.007019843937402358</v>
       </c>
       <c r="F111" t="n">
-        <v>0.02111989569101831</v>
+        <v>0.02594237383539781</v>
       </c>
       <c r="G111" t="n">
-        <v>0.7818653952569902</v>
+        <v>0.8190926737211747</v>
       </c>
       <c r="H111" t="inlineStr">
         <is>
@@ -3858,26 +3858,26 @@
     <row r="112">
       <c r="A112" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000250875_24.fasta</t>
+          <t>label_GCF_000250875_91.fasta</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>0.8962635967920449</v>
+        <v>0.9100903326647368</v>
       </c>
       <c r="C112" t="n">
-        <v>1.505224405729262e-05</v>
+        <v>0.003528780862494491</v>
       </c>
       <c r="D112" t="n">
-        <v>0.05066619953239328</v>
+        <v>0.03395935394839382</v>
       </c>
       <c r="E112" t="n">
-        <v>0.02631194239308348</v>
+        <v>0.02598600472299401</v>
       </c>
       <c r="F112" t="n">
-        <v>0.02674320903842126</v>
+        <v>0.02643552780138077</v>
       </c>
       <c r="G112" t="n">
-        <v>0.8962635967920449</v>
+        <v>0.9100903326647368</v>
       </c>
       <c r="H112" t="inlineStr">
         <is>
@@ -3888,508 +3888,28 @@
     <row r="113">
       <c r="A113" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000250875_25.fasta</t>
+          <t>label_GCF_000250875_96.fasta</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>0.8960953189476989</v>
+        <v>0.9053802627983822</v>
       </c>
       <c r="C113" t="n">
-        <v>0.0352074761432883</v>
+        <v>1.651070485202848e-05</v>
       </c>
       <c r="D113" t="n">
-        <v>0.03922872899666338</v>
+        <v>0.04176939309658843</v>
       </c>
       <c r="E113" t="n">
-        <v>0.003050339445768001</v>
+        <v>0.02275012131736621</v>
       </c>
       <c r="F113" t="n">
-        <v>0.02641813646658133</v>
+        <v>0.03008371208281102</v>
       </c>
       <c r="G113" t="n">
-        <v>0.8960953189476989</v>
+        <v>0.9053802627983822</v>
       </c>
       <c r="H113" t="inlineStr">
-        <is>
-          <t>s__Sutterella parvirubra</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="11" t="inlineStr">
-        <is>
-          <t>label_GCF_000250875_32.fasta</t>
-        </is>
-      </c>
-      <c r="B114" t="n">
-        <v>0.8901037827695706</v>
-      </c>
-      <c r="C114" t="n">
-        <v>0.03501178295349703</v>
-      </c>
-      <c r="D114" t="n">
-        <v>0.04310054239932026</v>
-      </c>
-      <c r="E114" t="n">
-        <v>0.005654345613968464</v>
-      </c>
-      <c r="F114" t="n">
-        <v>0.02612954626364365</v>
-      </c>
-      <c r="G114" t="n">
-        <v>0.8901037827695706</v>
-      </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>s__Sutterella parvirubra</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="11" t="inlineStr">
-        <is>
-          <t>label_GCF_000250875_33.fasta</t>
-        </is>
-      </c>
-      <c r="B115" t="n">
-        <v>0.8882852978698745</v>
-      </c>
-      <c r="C115" t="n">
-        <v>0.02183600681106985</v>
-      </c>
-      <c r="D115" t="n">
-        <v>0.03877041756371808</v>
-      </c>
-      <c r="E115" t="n">
-        <v>0.02391153845906766</v>
-      </c>
-      <c r="F115" t="n">
-        <v>0.02719673929626976</v>
-      </c>
-      <c r="G115" t="n">
-        <v>0.8882852978698745</v>
-      </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>s__Sutterella parvirubra</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="11" t="inlineStr">
-        <is>
-          <t>label_GCF_000250875_35.fasta</t>
-        </is>
-      </c>
-      <c r="B116" t="n">
-        <v>0.9056631972336181</v>
-      </c>
-      <c r="C116" t="n">
-        <v>0.03008478148101252</v>
-      </c>
-      <c r="D116" t="n">
-        <v>0.03641187329492275</v>
-      </c>
-      <c r="E116" t="n">
-        <v>0.002470281167031017</v>
-      </c>
-      <c r="F116" t="n">
-        <v>0.02536986682341563</v>
-      </c>
-      <c r="G116" t="n">
-        <v>0.9056631972336181</v>
-      </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>s__Sutterella parvirubra</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="11" t="inlineStr">
-        <is>
-          <t>label_GCF_000250875_39.fasta</t>
-        </is>
-      </c>
-      <c r="B117" t="n">
-        <v>0.7886436526597915</v>
-      </c>
-      <c r="C117" t="n">
-        <v>0.1465308569823732</v>
-      </c>
-      <c r="D117" t="n">
-        <v>0.02837643191642288</v>
-      </c>
-      <c r="E117" t="n">
-        <v>0.01505778973730325</v>
-      </c>
-      <c r="F117" t="n">
-        <v>0.02139126870410924</v>
-      </c>
-      <c r="G117" t="n">
-        <v>0.7886436526597915</v>
-      </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>s__Sutterella parvirubra</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="11" t="inlineStr">
-        <is>
-          <t>label_GCF_000250875_40.fasta</t>
-        </is>
-      </c>
-      <c r="B118" t="n">
-        <v>0.8549747668605392</v>
-      </c>
-      <c r="C118" t="n">
-        <v>0.07136865534795118</v>
-      </c>
-      <c r="D118" t="n">
-        <v>0.03466956316797882</v>
-      </c>
-      <c r="E118" t="n">
-        <v>0.01565301440370576</v>
-      </c>
-      <c r="F118" t="n">
-        <v>0.02333400021982516</v>
-      </c>
-      <c r="G118" t="n">
-        <v>0.8549747668605392</v>
-      </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>s__Sutterella parvirubra</t>
-        </is>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="11" t="inlineStr">
-        <is>
-          <t>label_GCF_000250875_44.fasta</t>
-        </is>
-      </c>
-      <c r="B119" t="n">
-        <v>0.8866238266732001</v>
-      </c>
-      <c r="C119" t="n">
-        <v>0.04126835930389587</v>
-      </c>
-      <c r="D119" t="n">
-        <v>0.03738004688159297</v>
-      </c>
-      <c r="E119" t="n">
-        <v>0.008687038481691766</v>
-      </c>
-      <c r="F119" t="n">
-        <v>0.02604072865961933</v>
-      </c>
-      <c r="G119" t="n">
-        <v>0.8866238266732001</v>
-      </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>s__Sutterella parvirubra</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="11" t="inlineStr">
-        <is>
-          <t>label_GCF_000250875_47.fasta</t>
-        </is>
-      </c>
-      <c r="B120" t="n">
-        <v>0.5855006256509875</v>
-      </c>
-      <c r="C120" t="n">
-        <v>0.2917848203498771</v>
-      </c>
-      <c r="D120" t="n">
-        <v>0.04334099459634094</v>
-      </c>
-      <c r="E120" t="n">
-        <v>0.04616139602684344</v>
-      </c>
-      <c r="F120" t="n">
-        <v>0.03321216337595109</v>
-      </c>
-      <c r="G120" t="n">
-        <v>0.5855006256509875</v>
-      </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>s__Sutterella parvirubra</t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="11" t="inlineStr">
-        <is>
-          <t>label_GCF_000250875_50.fasta</t>
-        </is>
-      </c>
-      <c r="B121" t="n">
-        <v>0.7896032690303774</v>
-      </c>
-      <c r="C121" t="n">
-        <v>0.1517996342281385</v>
-      </c>
-      <c r="D121" t="n">
-        <v>0.03079732611844191</v>
-      </c>
-      <c r="E121" t="n">
-        <v>0.005761133470869144</v>
-      </c>
-      <c r="F121" t="n">
-        <v>0.02203863715217311</v>
-      </c>
-      <c r="G121" t="n">
-        <v>0.7896032690303774</v>
-      </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>s__Sutterella parvirubra</t>
-        </is>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="11" t="inlineStr">
-        <is>
-          <t>label_GCF_000250875_56.fasta</t>
-        </is>
-      </c>
-      <c r="B122" t="n">
-        <v>0.8986407315724518</v>
-      </c>
-      <c r="C122" t="n">
-        <v>0.02602004529912844</v>
-      </c>
-      <c r="D122" t="n">
-        <v>0.04296150554420614</v>
-      </c>
-      <c r="E122" t="n">
-        <v>0.006981874131176602</v>
-      </c>
-      <c r="F122" t="n">
-        <v>0.02539584345303695</v>
-      </c>
-      <c r="G122" t="n">
-        <v>0.8986407315724518</v>
-      </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>s__Sutterella parvirubra</t>
-        </is>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="11" t="inlineStr">
-        <is>
-          <t>label_GCF_000250875_67.fasta</t>
-        </is>
-      </c>
-      <c r="B123" t="n">
-        <v>0.9129077310020471</v>
-      </c>
-      <c r="C123" t="n">
-        <v>0.000157159146829554</v>
-      </c>
-      <c r="D123" t="n">
-        <v>0.02777781968915955</v>
-      </c>
-      <c r="E123" t="n">
-        <v>0.03349967740104558</v>
-      </c>
-      <c r="F123" t="n">
-        <v>0.02565761276091822</v>
-      </c>
-      <c r="G123" t="n">
-        <v>0.9129077310020471</v>
-      </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>s__Sutterella parvirubra</t>
-        </is>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="11" t="inlineStr">
-        <is>
-          <t>label_GCF_000250875_8.fasta</t>
-        </is>
-      </c>
-      <c r="B124" t="n">
-        <v>0.9127838401448101</v>
-      </c>
-      <c r="C124" t="n">
-        <v>0.003226029882008292</v>
-      </c>
-      <c r="D124" t="n">
-        <v>0.04953207192329872</v>
-      </c>
-      <c r="E124" t="n">
-        <v>0.00762427944801994</v>
-      </c>
-      <c r="F124" t="n">
-        <v>0.02683377860186303</v>
-      </c>
-      <c r="G124" t="n">
-        <v>0.9127838401448101</v>
-      </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>s__Sutterella parvirubra</t>
-        </is>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="11" t="inlineStr">
-        <is>
-          <t>label_GCF_000250875_86.fasta</t>
-        </is>
-      </c>
-      <c r="B125" t="n">
-        <v>0.908421967455188</v>
-      </c>
-      <c r="C125" t="n">
-        <v>0.02208803578586432</v>
-      </c>
-      <c r="D125" t="n">
-        <v>0.03876898674313885</v>
-      </c>
-      <c r="E125" t="n">
-        <v>0.002451837690657964</v>
-      </c>
-      <c r="F125" t="n">
-        <v>0.02826917232515096</v>
-      </c>
-      <c r="G125" t="n">
-        <v>0.908421967455188</v>
-      </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>s__Sutterella parvirubra</t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="11" t="inlineStr">
-        <is>
-          <t>label_GCF_000250875_88.fasta</t>
-        </is>
-      </c>
-      <c r="B126" t="n">
-        <v>0.9143646110608167</v>
-      </c>
-      <c r="C126" t="n">
-        <v>0.01162395189342037</v>
-      </c>
-      <c r="D126" t="n">
-        <v>0.04504773835589251</v>
-      </c>
-      <c r="E126" t="n">
-        <v>0.002149138226238204</v>
-      </c>
-      <c r="F126" t="n">
-        <v>0.02681456046363218</v>
-      </c>
-      <c r="G126" t="n">
-        <v>0.9143646110608167</v>
-      </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>s__Sutterella parvirubra</t>
-        </is>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="11" t="inlineStr">
-        <is>
-          <t>label_GCF_000250875_9.fasta</t>
-        </is>
-      </c>
-      <c r="B127" t="n">
-        <v>0.8190926737211747</v>
-      </c>
-      <c r="C127" t="n">
-        <v>0.1109393784087729</v>
-      </c>
-      <c r="D127" t="n">
-        <v>0.03700573009725228</v>
-      </c>
-      <c r="E127" t="n">
-        <v>0.007019843937402358</v>
-      </c>
-      <c r="F127" t="n">
-        <v>0.02594237383539781</v>
-      </c>
-      <c r="G127" t="n">
-        <v>0.8190926737211747</v>
-      </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>s__Sutterella parvirubra</t>
-        </is>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="11" t="inlineStr">
-        <is>
-          <t>label_GCF_000250875_91.fasta</t>
-        </is>
-      </c>
-      <c r="B128" t="n">
-        <v>0.9100903326647368</v>
-      </c>
-      <c r="C128" t="n">
-        <v>0.003528780862494491</v>
-      </c>
-      <c r="D128" t="n">
-        <v>0.03395935394839382</v>
-      </c>
-      <c r="E128" t="n">
-        <v>0.02598600472299401</v>
-      </c>
-      <c r="F128" t="n">
-        <v>0.02643552780138077</v>
-      </c>
-      <c r="G128" t="n">
-        <v>0.9100903326647368</v>
-      </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>s__Sutterella parvirubra</t>
-        </is>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="11" t="inlineStr">
-        <is>
-          <t>label_GCF_000250875_96.fasta</t>
-        </is>
-      </c>
-      <c r="B129" t="n">
-        <v>0.9053802627983822</v>
-      </c>
-      <c r="C129" t="n">
-        <v>1.651070485202848e-05</v>
-      </c>
-      <c r="D129" t="n">
-        <v>0.04176939309658843</v>
-      </c>
-      <c r="E129" t="n">
-        <v>0.02275012131736621</v>
-      </c>
-      <c r="F129" t="n">
-        <v>0.03008371208281102</v>
-      </c>
-      <c r="G129" t="n">
-        <v>0.9053802627983822</v>
-      </c>
-      <c r="H129" t="inlineStr">
         <is>
           <t>s__Sutterella parvirubra</t>
         </is>
@@ -4406,7 +3926,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H41"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4579,26 +4099,26 @@
     <row r="6">
       <c r="A6" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS613_0.fasta</t>
+          <t>label_UMGS613_10.fasta</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0006615054723543052</v>
+        <v>0.1459750979467</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4756599759674979</v>
+        <v>0.4622924321678359</v>
       </c>
       <c r="D6" t="n">
-        <v>0.3235967025528304</v>
+        <v>0.3917324698588605</v>
       </c>
       <c r="E6" t="n">
-        <v>0.01963249280059472</v>
+        <v>1.33019743101099e-11</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1804493232067227</v>
+        <v>1.33019743101099e-11</v>
       </c>
       <c r="G6" t="n">
-        <v>0.4756599759674979</v>
+        <v>0.4622924321678359</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -4609,26 +4129,26 @@
     <row r="7">
       <c r="A7" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS613_1.fasta</t>
+          <t>label_UMGS613_12.fasta</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.001064056020746098</v>
+        <v>0.12533346432794</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4847539061069301</v>
+        <v>0.4912391536529923</v>
       </c>
       <c r="D7" t="n">
-        <v>0.3159114784917932</v>
+        <v>0.3834273820127165</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0212985565556744</v>
+        <v>3.175517980589136e-12</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1769720028248562</v>
+        <v>3.175517980589138e-12</v>
       </c>
       <c r="G7" t="n">
-        <v>0.4847539061069301</v>
+        <v>0.4912391536529923</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -4639,26 +4159,26 @@
     <row r="8">
       <c r="A8" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS613_15.fasta</t>
+          <t>label_UMGS613_2.fasta</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.002813217871903618</v>
+        <v>0.1323724803499562</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4946447111659059</v>
+        <v>0.4782785851436338</v>
       </c>
       <c r="D8" t="n">
-        <v>0.3055031464363723</v>
+        <v>0.3893489344824516</v>
       </c>
       <c r="E8" t="n">
-        <v>0.03203429458898566</v>
+        <v>1.197902136816185e-11</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1650046299368323</v>
+        <v>1.197902136816186e-11</v>
       </c>
       <c r="G8" t="n">
-        <v>0.4946447111659059</v>
+        <v>0.4782785851436338</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -4669,26 +4189,26 @@
     <row r="9">
       <c r="A9" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS613_16.fasta</t>
+          <t>label_UMGS613_20.fasta</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.006473963622397175</v>
+        <v>0.1173816516391633</v>
       </c>
       <c r="C9" t="n">
-        <v>0.518080782875737</v>
+        <v>0.5137053834718546</v>
       </c>
       <c r="D9" t="n">
-        <v>0.2749736406061065</v>
+        <v>0.3689129648873437</v>
       </c>
       <c r="E9" t="n">
-        <v>0.04097788497658562</v>
+        <v>8.192148841843726e-13</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1594937279191738</v>
+        <v>8.192148841843731e-13</v>
       </c>
       <c r="G9" t="n">
-        <v>0.518080782875737</v>
+        <v>0.5137053834718546</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -4699,26 +4219,26 @@
     <row r="10">
       <c r="A10" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS613_19.fasta</t>
+          <t>label_UMGS613_25.fasta</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.002577518265442114</v>
+        <v>0.1569163599037585</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6646369333806278</v>
+        <v>0.4937438787273379</v>
       </c>
       <c r="D10" t="n">
-        <v>0.199408017290974</v>
+        <v>0.3493397613681941</v>
       </c>
       <c r="E10" t="n">
-        <v>0.01763998402543033</v>
+        <v>3.546846540088257e-13</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1157375470375257</v>
+        <v>3.546846540088227e-13</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6646369333806278</v>
+        <v>0.4937438787273379</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -4729,26 +4249,26 @@
     <row r="11">
       <c r="A11" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS613_21.fasta</t>
+          <t>label_UMGS613_27.fasta</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.02126934067943557</v>
+        <v>0.1484120169862741</v>
       </c>
       <c r="C11" t="n">
-        <v>0.510330127371067</v>
+        <v>0.4779885381800376</v>
       </c>
       <c r="D11" t="n">
-        <v>0.2527158703110068</v>
+        <v>0.3735994448135074</v>
       </c>
       <c r="E11" t="n">
-        <v>0.05691030787785169</v>
+        <v>1.955280686914933e-11</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1587743537606391</v>
+        <v>6.280695463207353e-13</v>
       </c>
       <c r="G11" t="n">
-        <v>0.510330127371067</v>
+        <v>0.4779885381800376</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -4759,26 +4279,26 @@
     <row r="12">
       <c r="A12" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS613_23.fasta</t>
+          <t>label_UMGS613_3.fasta</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.0230286480785407</v>
+        <v>0.1226481166101618</v>
       </c>
       <c r="C12" t="n">
-        <v>0.4858075868451785</v>
+        <v>0.4963987515535899</v>
       </c>
       <c r="D12" t="n">
-        <v>0.2527763629546655</v>
+        <v>0.3809531318271888</v>
       </c>
       <c r="E12" t="n">
-        <v>0.08415488233877411</v>
+        <v>4.529702116141162e-12</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1542325197828413</v>
+        <v>4.529702116141163e-12</v>
       </c>
       <c r="G12" t="n">
-        <v>0.4858075868451785</v>
+        <v>0.4963987515535899</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -4789,26 +4309,26 @@
     <row r="13">
       <c r="A13" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS613_28.fasta</t>
+          <t>label_UMGS613_30.fasta</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.03811692680014853</v>
+        <v>0.198971601221322</v>
       </c>
       <c r="C13" t="n">
-        <v>0.4998311572657476</v>
+        <v>0.483865634049173</v>
       </c>
       <c r="D13" t="n">
-        <v>0.2263396479256918</v>
+        <v>0.3171627647291601</v>
       </c>
       <c r="E13" t="n">
-        <v>0.089010044306968</v>
+        <v>1.724074343030312e-13</v>
       </c>
       <c r="F13" t="n">
-        <v>0.146702223701444</v>
+        <v>1.724074343030196e-13</v>
       </c>
       <c r="G13" t="n">
-        <v>0.4998311572657476</v>
+        <v>0.483865634049173</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
@@ -4819,26 +4339,26 @@
     <row r="14">
       <c r="A14" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS613_31.fasta</t>
+          <t>label_UMGS613_9.fasta</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.05749829553924249</v>
+        <v>0.1294188897473743</v>
       </c>
       <c r="C14" t="n">
-        <v>0.4585681866828319</v>
+        <v>0.4975963163651169</v>
       </c>
       <c r="D14" t="n">
-        <v>0.2128759148425933</v>
+        <v>0.3729847938848814</v>
       </c>
       <c r="E14" t="n">
-        <v>0.1185949901386296</v>
+        <v>1.313859646230778e-12</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1524626127967026</v>
+        <v>1.313859646230778e-12</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4585681866828319</v>
+        <v>0.4975963163651169</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -4849,26 +4369,26 @@
     <row r="15">
       <c r="A15" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS613_4.fasta</t>
+          <t>label_UMGS613_11.fasta</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.001624347521755451</v>
+        <v>0.02241416548845845</v>
       </c>
       <c r="C15" t="n">
-        <v>0.5613839005043295</v>
+        <v>0.5765018907607463</v>
       </c>
       <c r="D15" t="n">
-        <v>0.267321382548342</v>
+        <v>0.2483007632736283</v>
       </c>
       <c r="E15" t="n">
-        <v>0.02052772399948316</v>
+        <v>0.01311845666708659</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1491426454260901</v>
+        <v>0.1396647238100803</v>
       </c>
       <c r="G15" t="n">
-        <v>0.5613839005043295</v>
+        <v>0.5765018907607463</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -4879,26 +4399,26 @@
     <row r="16">
       <c r="A16" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS613_6.fasta</t>
+          <t>label_UMGS613_14.fasta</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.0005605345400189345</v>
+        <v>0.01497733603450827</v>
       </c>
       <c r="C16" t="n">
-        <v>0.5093873414497813</v>
+        <v>0.6046455765253907</v>
       </c>
       <c r="D16" t="n">
-        <v>0.3048039972945984</v>
+        <v>0.2350143451513785</v>
       </c>
       <c r="E16" t="n">
-        <v>0.02066055482536407</v>
+        <v>0.01592620694041973</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1645875718902372</v>
+        <v>0.1294365353483029</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5093873414497813</v>
+        <v>0.6046455765253907</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -4909,26 +4429,26 @@
     <row r="17">
       <c r="A17" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS613_8.fasta</t>
+          <t>label_UMGS613_18.fasta</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.0003914104269376502</v>
+        <v>0.05421288620018107</v>
       </c>
       <c r="C17" t="n">
-        <v>0.4759775041505702</v>
+        <v>0.5964652221990813</v>
       </c>
       <c r="D17" t="n">
-        <v>0.3332205786522715</v>
+        <v>0.2076284454893104</v>
       </c>
       <c r="E17" t="n">
-        <v>0.02395993863959596</v>
+        <v>0.01465052939655102</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1664505681306247</v>
+        <v>0.1270429167148763</v>
       </c>
       <c r="G17" t="n">
-        <v>0.4759775041505702</v>
+        <v>0.5964652221990813</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -4939,26 +4459,26 @@
     <row r="18">
       <c r="A18" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS613_10.fasta</t>
+          <t>label_UMGS613_24.fasta</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.1459750979467</v>
+        <v>0.06851840988271236</v>
       </c>
       <c r="C18" t="n">
-        <v>0.4622924321678359</v>
+        <v>0.6022195552750175</v>
       </c>
       <c r="D18" t="n">
-        <v>0.3917324698588605</v>
+        <v>0.196450177930692</v>
       </c>
       <c r="E18" t="n">
-        <v>1.33019743101099e-11</v>
+        <v>0.01828580619473049</v>
       </c>
       <c r="F18" t="n">
-        <v>1.33019743101099e-11</v>
+        <v>0.1145260507168477</v>
       </c>
       <c r="G18" t="n">
-        <v>0.4622924321678359</v>
+        <v>0.6022195552750175</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
@@ -4969,26 +4489,26 @@
     <row r="19">
       <c r="A19" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS613_12.fasta</t>
+          <t>label_UMGS613_29.fasta</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.12533346432794</v>
+        <v>0.1344464631104327</v>
       </c>
       <c r="C19" t="n">
-        <v>0.4912391536529923</v>
+        <v>0.5857514196276786</v>
       </c>
       <c r="D19" t="n">
-        <v>0.3834273820127165</v>
+        <v>0.174323665638999</v>
       </c>
       <c r="E19" t="n">
-        <v>3.175517980589136e-12</v>
+        <v>0.01242190397640768</v>
       </c>
       <c r="F19" t="n">
-        <v>3.175517980589138e-12</v>
+        <v>0.09305654764648216</v>
       </c>
       <c r="G19" t="n">
-        <v>0.4912391536529923</v>
+        <v>0.5857514196276786</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
@@ -4999,56 +4519,56 @@
     <row r="20">
       <c r="A20" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS613_2.fasta</t>
+          <t>label_UMGS613_34.fasta</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.1323724803499562</v>
+        <v>0.7598184017568587</v>
       </c>
       <c r="C20" t="n">
-        <v>0.4782785851436338</v>
+        <v>0.1631826326087566</v>
       </c>
       <c r="D20" t="n">
-        <v>0.3893489344824516</v>
+        <v>0.03992071722236738</v>
       </c>
       <c r="E20" t="n">
-        <v>1.197902136816185e-11</v>
+        <v>0.01319689250629429</v>
       </c>
       <c r="F20" t="n">
-        <v>1.197902136816186e-11</v>
+        <v>0.02388135590572312</v>
       </c>
       <c r="G20" t="n">
-        <v>0.4782785851436338</v>
+        <v>0.7598184017568587</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>s__Sutterella sp900543805</t>
+          <t>s__Sutterella parvirubra</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS613_20.fasta</t>
+          <t>label_UMGS613_5.fasta</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.1173816516391633</v>
+        <v>0.01213033322968902</v>
       </c>
       <c r="C21" t="n">
-        <v>0.5137053834718546</v>
+        <v>0.4974922984844702</v>
       </c>
       <c r="D21" t="n">
-        <v>0.3689129648873437</v>
+        <v>0.2988190554737258</v>
       </c>
       <c r="E21" t="n">
-        <v>8.192148841843726e-13</v>
+        <v>0.02220627157100427</v>
       </c>
       <c r="F21" t="n">
-        <v>8.192148841843731e-13</v>
+        <v>0.1693520412411106</v>
       </c>
       <c r="G21" t="n">
-        <v>0.5137053834718546</v>
+        <v>0.4974922984844702</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
@@ -5059,26 +4579,26 @@
     <row r="22">
       <c r="A22" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS613_25.fasta</t>
+          <t>label_UMGS613_13.fasta</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.1569163599037585</v>
+        <v>0.0002745989517204789</v>
       </c>
       <c r="C22" t="n">
-        <v>0.4937438787273379</v>
+        <v>0.569648323139628</v>
       </c>
       <c r="D22" t="n">
-        <v>0.3493397613681941</v>
+        <v>0.2809259345924751</v>
       </c>
       <c r="E22" t="n">
-        <v>3.546846540088257e-13</v>
+        <v>0.01755101290141478</v>
       </c>
       <c r="F22" t="n">
-        <v>3.546846540088227e-13</v>
+        <v>0.1316001304147617</v>
       </c>
       <c r="G22" t="n">
-        <v>0.4937438787273379</v>
+        <v>0.569648323139628</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
@@ -5089,26 +4609,26 @@
     <row r="23">
       <c r="A23" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS613_27.fasta</t>
+          <t>label_UMGS613_22.fasta</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.1484120169862741</v>
+        <v>0.1449038479529746</v>
       </c>
       <c r="C23" t="n">
-        <v>0.4779885381800376</v>
+        <v>0.5113113111261367</v>
       </c>
       <c r="D23" t="n">
-        <v>0.3735994448135074</v>
+        <v>0.1949262239829328</v>
       </c>
       <c r="E23" t="n">
-        <v>1.955280686914933e-11</v>
+        <v>0.02395485617310827</v>
       </c>
       <c r="F23" t="n">
-        <v>6.280695463207353e-13</v>
+        <v>0.1249037607648477</v>
       </c>
       <c r="G23" t="n">
-        <v>0.4779885381800376</v>
+        <v>0.5113113111261367</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
@@ -5119,26 +4639,26 @@
     <row r="24">
       <c r="A24" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS613_3.fasta</t>
+          <t>label_UMGS613_32.fasta</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.1226481166101618</v>
+        <v>0.01117978938610496</v>
       </c>
       <c r="C24" t="n">
-        <v>0.4963987515535899</v>
+        <v>0.6940167178046528</v>
       </c>
       <c r="D24" t="n">
-        <v>0.3809531318271888</v>
+        <v>0.1515576932932725</v>
       </c>
       <c r="E24" t="n">
-        <v>4.529702116141162e-12</v>
+        <v>0.03653814714750723</v>
       </c>
       <c r="F24" t="n">
-        <v>4.529702116141163e-12</v>
+        <v>0.1067076523684625</v>
       </c>
       <c r="G24" t="n">
-        <v>0.4963987515535899</v>
+        <v>0.6940167178046528</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
@@ -5149,26 +4669,26 @@
     <row r="25">
       <c r="A25" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS613_30.fasta</t>
+          <t>label_UMGS613_7.fasta</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.198971601221322</v>
+        <v>0.0003689226961439477</v>
       </c>
       <c r="C25" t="n">
-        <v>0.483865634049173</v>
+        <v>0.6200855472150626</v>
       </c>
       <c r="D25" t="n">
-        <v>0.3171627647291601</v>
+        <v>0.2254863407370463</v>
       </c>
       <c r="E25" t="n">
-        <v>1.724074343030312e-13</v>
+        <v>0.02362262772368843</v>
       </c>
       <c r="F25" t="n">
-        <v>1.724074343030196e-13</v>
+        <v>0.1304365616280588</v>
       </c>
       <c r="G25" t="n">
-        <v>0.483865634049173</v>
+        <v>0.6200855472150626</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
@@ -5179,26 +4699,26 @@
     <row r="26">
       <c r="A26" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS613_9.fasta</t>
+          <t>label_UMGS613_17.fasta</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.1294188897473743</v>
+        <v>0.002810571901364287</v>
       </c>
       <c r="C26" t="n">
-        <v>0.4975963163651169</v>
+        <v>0.7198439099294067</v>
       </c>
       <c r="D26" t="n">
-        <v>0.3729847938848814</v>
+        <v>0.175341603435638</v>
       </c>
       <c r="E26" t="n">
-        <v>1.313859646230778e-12</v>
+        <v>0.009708355456778948</v>
       </c>
       <c r="F26" t="n">
-        <v>1.313859646230778e-12</v>
+        <v>0.09229555927681211</v>
       </c>
       <c r="G26" t="n">
-        <v>0.4975963163651169</v>
+        <v>0.7198439099294067</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
@@ -5209,26 +4729,26 @@
     <row r="27">
       <c r="A27" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS613_11.fasta</t>
+          <t>label_UMGS613_26.fasta</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.02241416548845845</v>
+        <v>0.007553009146978168</v>
       </c>
       <c r="C27" t="n">
-        <v>0.5765018907607463</v>
+        <v>0.7382568592434824</v>
       </c>
       <c r="D27" t="n">
-        <v>0.2483007632736283</v>
+        <v>0.1505671539990081</v>
       </c>
       <c r="E27" t="n">
-        <v>0.01311845666708659</v>
+        <v>0.02074332090315517</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1396647238100803</v>
+        <v>0.08287965670737629</v>
       </c>
       <c r="G27" t="n">
-        <v>0.5765018907607463</v>
+        <v>0.7382568592434824</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
@@ -5239,418 +4759,58 @@
     <row r="28">
       <c r="A28" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS613_14.fasta</t>
+          <t>label_UMGS613_33.fasta</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.01497733603450827</v>
+        <v>0.8667183017404119</v>
       </c>
       <c r="C28" t="n">
-        <v>0.6046455765253907</v>
+        <v>0.001153313704674454</v>
       </c>
       <c r="D28" t="n">
-        <v>0.2350143451513785</v>
+        <v>0.03089920208739302</v>
       </c>
       <c r="E28" t="n">
-        <v>0.01592620694041973</v>
+        <v>0.05685557478963724</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1294365353483029</v>
+        <v>0.04437360767788343</v>
       </c>
       <c r="G28" t="n">
-        <v>0.6046455765253907</v>
+        <v>0.8667183017404119</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>s__Sutterella sp900543805</t>
+          <t>s__Sutterella parvirubra</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS613_18.fasta</t>
+          <t>label_UMGS613_35.fasta</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.05421288620018107</v>
+        <v>0.896452068906364</v>
       </c>
       <c r="C29" t="n">
-        <v>0.5964652221990813</v>
+        <v>2.227579309164586e-06</v>
       </c>
       <c r="D29" t="n">
-        <v>0.2076284454893104</v>
+        <v>0.02529731294162943</v>
       </c>
       <c r="E29" t="n">
-        <v>0.01465052939655102</v>
+        <v>0.04425102649600043</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1270429167148763</v>
+        <v>0.03399736407669704</v>
       </c>
       <c r="G29" t="n">
-        <v>0.5964652221990813</v>
+        <v>0.896452068906364</v>
       </c>
       <c r="H29" t="inlineStr">
-        <is>
-          <t>s__Sutterella sp900543805</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS613_24.fasta</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
-        <v>0.06851840988271236</v>
-      </c>
-      <c r="C30" t="n">
-        <v>0.6022195552750175</v>
-      </c>
-      <c r="D30" t="n">
-        <v>0.196450177930692</v>
-      </c>
-      <c r="E30" t="n">
-        <v>0.01828580619473049</v>
-      </c>
-      <c r="F30" t="n">
-        <v>0.1145260507168477</v>
-      </c>
-      <c r="G30" t="n">
-        <v>0.6022195552750175</v>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>s__Sutterella sp900543805</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS613_29.fasta</t>
-        </is>
-      </c>
-      <c r="B31" t="n">
-        <v>0.1344464631104327</v>
-      </c>
-      <c r="C31" t="n">
-        <v>0.5857514196276786</v>
-      </c>
-      <c r="D31" t="n">
-        <v>0.174323665638999</v>
-      </c>
-      <c r="E31" t="n">
-        <v>0.01242190397640768</v>
-      </c>
-      <c r="F31" t="n">
-        <v>0.09305654764648216</v>
-      </c>
-      <c r="G31" t="n">
-        <v>0.5857514196276786</v>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>s__Sutterella sp900543805</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS613_34.fasta</t>
-        </is>
-      </c>
-      <c r="B32" t="n">
-        <v>0.7598184017568587</v>
-      </c>
-      <c r="C32" t="n">
-        <v>0.1631826326087566</v>
-      </c>
-      <c r="D32" t="n">
-        <v>0.03992071722236738</v>
-      </c>
-      <c r="E32" t="n">
-        <v>0.01319689250629429</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0.02388135590572312</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0.7598184017568587</v>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>s__Sutterella parvirubra</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS613_5.fasta</t>
-        </is>
-      </c>
-      <c r="B33" t="n">
-        <v>0.01213033322968902</v>
-      </c>
-      <c r="C33" t="n">
-        <v>0.4974922984844702</v>
-      </c>
-      <c r="D33" t="n">
-        <v>0.2988190554737258</v>
-      </c>
-      <c r="E33" t="n">
-        <v>0.02220627157100427</v>
-      </c>
-      <c r="F33" t="n">
-        <v>0.1693520412411106</v>
-      </c>
-      <c r="G33" t="n">
-        <v>0.4974922984844702</v>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>s__Sutterella sp900543805</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS613_13.fasta</t>
-        </is>
-      </c>
-      <c r="B34" t="n">
-        <v>0.0002745989517204789</v>
-      </c>
-      <c r="C34" t="n">
-        <v>0.569648323139628</v>
-      </c>
-      <c r="D34" t="n">
-        <v>0.2809259345924751</v>
-      </c>
-      <c r="E34" t="n">
-        <v>0.01755101290141478</v>
-      </c>
-      <c r="F34" t="n">
-        <v>0.1316001304147617</v>
-      </c>
-      <c r="G34" t="n">
-        <v>0.569648323139628</v>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>s__Sutterella sp900543805</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS613_22.fasta</t>
-        </is>
-      </c>
-      <c r="B35" t="n">
-        <v>0.1449038479529746</v>
-      </c>
-      <c r="C35" t="n">
-        <v>0.5113113111261367</v>
-      </c>
-      <c r="D35" t="n">
-        <v>0.1949262239829328</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0.02395485617310827</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0.1249037607648477</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0.5113113111261367</v>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>s__Sutterella sp900543805</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS613_32.fasta</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
-        <v>0.01117978938610496</v>
-      </c>
-      <c r="C36" t="n">
-        <v>0.6940167178046528</v>
-      </c>
-      <c r="D36" t="n">
-        <v>0.1515576932932725</v>
-      </c>
-      <c r="E36" t="n">
-        <v>0.03653814714750723</v>
-      </c>
-      <c r="F36" t="n">
-        <v>0.1067076523684625</v>
-      </c>
-      <c r="G36" t="n">
-        <v>0.6940167178046528</v>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>s__Sutterella sp900543805</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS613_7.fasta</t>
-        </is>
-      </c>
-      <c r="B37" t="n">
-        <v>0.0003689226961439477</v>
-      </c>
-      <c r="C37" t="n">
-        <v>0.6200855472150626</v>
-      </c>
-      <c r="D37" t="n">
-        <v>0.2254863407370463</v>
-      </c>
-      <c r="E37" t="n">
-        <v>0.02362262772368843</v>
-      </c>
-      <c r="F37" t="n">
-        <v>0.1304365616280588</v>
-      </c>
-      <c r="G37" t="n">
-        <v>0.6200855472150626</v>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>s__Sutterella sp900543805</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS613_17.fasta</t>
-        </is>
-      </c>
-      <c r="B38" t="n">
-        <v>0.002810571901364287</v>
-      </c>
-      <c r="C38" t="n">
-        <v>0.7198439099294067</v>
-      </c>
-      <c r="D38" t="n">
-        <v>0.175341603435638</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0.009708355456778948</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0.09229555927681211</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0.7198439099294067</v>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>s__Sutterella sp900543805</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS613_26.fasta</t>
-        </is>
-      </c>
-      <c r="B39" t="n">
-        <v>0.007553009146978168</v>
-      </c>
-      <c r="C39" t="n">
-        <v>0.7382568592434824</v>
-      </c>
-      <c r="D39" t="n">
-        <v>0.1505671539990081</v>
-      </c>
-      <c r="E39" t="n">
-        <v>0.02074332090315517</v>
-      </c>
-      <c r="F39" t="n">
-        <v>0.08287965670737629</v>
-      </c>
-      <c r="G39" t="n">
-        <v>0.7382568592434824</v>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>s__Sutterella sp900543805</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS613_33.fasta</t>
-        </is>
-      </c>
-      <c r="B40" t="n">
-        <v>0.8667183017404119</v>
-      </c>
-      <c r="C40" t="n">
-        <v>0.001153313704674454</v>
-      </c>
-      <c r="D40" t="n">
-        <v>0.03089920208739302</v>
-      </c>
-      <c r="E40" t="n">
-        <v>0.05685557478963724</v>
-      </c>
-      <c r="F40" t="n">
-        <v>0.04437360767788343</v>
-      </c>
-      <c r="G40" t="n">
-        <v>0.8667183017404119</v>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>s__Sutterella parvirubra</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS613_35.fasta</t>
-        </is>
-      </c>
-      <c r="B41" t="n">
-        <v>0.896452068906364</v>
-      </c>
-      <c r="C41" t="n">
-        <v>2.227579309164586e-06</v>
-      </c>
-      <c r="D41" t="n">
-        <v>0.02529731294162943</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0.04425102649600043</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0.03399736407669704</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0.896452068906364</v>
-      </c>
-      <c r="H41" t="inlineStr">
         <is>
           <t>s__Sutterella parvirubra</t>
         </is>
@@ -5667,7 +4827,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5840,26 +5000,26 @@
     <row r="6">
       <c r="A6" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS757_17.fasta</t>
+          <t>label_UMGS757_1.fasta</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.007517053348794146</v>
+        <v>0.1315859718477017</v>
       </c>
       <c r="C6" t="n">
-        <v>0.420774649063698</v>
+        <v>0.4789326711843955</v>
       </c>
       <c r="D6" t="n">
-        <v>0.3086366063150201</v>
+        <v>0.3894813569397582</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1018342334645543</v>
+        <v>1.407225290025284e-11</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1612374578079335</v>
+        <v>1.407225290025285e-11</v>
       </c>
       <c r="G6" t="n">
-        <v>0.420774649063698</v>
+        <v>0.4789326711843955</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -5870,26 +5030,26 @@
     <row r="7">
       <c r="A7" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS757_19.fasta</t>
+          <t>label_UMGS757_12.fasta</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.01453313282768599</v>
+        <v>0.1437082708790862</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5532744823617463</v>
+        <v>0.4642080471808289</v>
       </c>
       <c r="D7" t="n">
-        <v>0.2356709620636507</v>
+        <v>0.3920836819308785</v>
       </c>
       <c r="E7" t="n">
-        <v>0.05287514854078276</v>
+        <v>4.603182453953606e-12</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1436462742061342</v>
+        <v>4.603182453953582e-12</v>
       </c>
       <c r="G7" t="n">
-        <v>0.5532744823617463</v>
+        <v>0.4642080471808289</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -5900,26 +5060,26 @@
     <row r="8">
       <c r="A8" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS757_2.fasta</t>
+          <t>label_UMGS757_16.fasta</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.000999245706181514</v>
+        <v>0.1354827917311646</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3874660798222447</v>
+        <v>0.4741506919106278</v>
       </c>
       <c r="D8" t="n">
-        <v>0.3746355210048998</v>
+        <v>0.3903241952925308</v>
       </c>
       <c r="E8" t="n">
-        <v>0.03690048887695768</v>
+        <v>4.232105750359143e-05</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1999986645897163</v>
+        <v>8.173357101034556e-12</v>
       </c>
       <c r="G8" t="n">
-        <v>0.3874660798222447</v>
+        <v>0.4741506919106278</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -5930,26 +5090,26 @@
     <row r="9">
       <c r="A9" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS757_3.fasta</t>
+          <t>label_UMGS757_8.fasta</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.00069699464481076</v>
+        <v>0.003391777005190348</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4816733904122689</v>
+        <v>0.4395072359396498</v>
       </c>
       <c r="D9" t="n">
-        <v>0.3218423241523863</v>
+        <v>0.334153848817874</v>
       </c>
       <c r="E9" t="n">
-        <v>0.01948810864498786</v>
+        <v>1.07975972467245e-12</v>
       </c>
       <c r="F9" t="n">
-        <v>0.176299182145546</v>
+        <v>0.222947138236206</v>
       </c>
       <c r="G9" t="n">
-        <v>0.4816733904122689</v>
+        <v>0.4395072359396498</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -5960,26 +5120,26 @@
     <row r="10">
       <c r="A10" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS757_5.fasta</t>
+          <t>label_UMGS757_0.fasta</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.0002757740856860341</v>
+        <v>0.0035708214667982</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4605377606801563</v>
+        <v>0.4497251227087919</v>
       </c>
       <c r="D10" t="n">
-        <v>0.3466510372349452</v>
+        <v>0.3229369522667665</v>
       </c>
       <c r="E10" t="n">
-        <v>0.02187665291226134</v>
+        <v>0.04044670598412752</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1706587750869512</v>
+        <v>0.1833203975735159</v>
       </c>
       <c r="G10" t="n">
-        <v>0.4605377606801563</v>
+        <v>0.4497251227087919</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -5990,26 +5150,26 @@
     <row r="11">
       <c r="A11" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS757_1.fasta</t>
+          <t>label_UMGS757_14.fasta</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.1315859718477017</v>
+        <v>0.02613370730108714</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4789326711843955</v>
+        <v>0.6120085280846964</v>
       </c>
       <c r="D11" t="n">
-        <v>0.3894813569397582</v>
+        <v>0.224433291476885</v>
       </c>
       <c r="E11" t="n">
-        <v>1.407225290025284e-11</v>
+        <v>0.01157738067711402</v>
       </c>
       <c r="F11" t="n">
-        <v>1.407225290025285e-11</v>
+        <v>0.1258470924602174</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4789326711843955</v>
+        <v>0.6120085280846964</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -6020,26 +5180,26 @@
     <row r="12">
       <c r="A12" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS757_12.fasta</t>
+          <t>label_UMGS757_18.fasta</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.1437082708790862</v>
+        <v>0.01419540903336659</v>
       </c>
       <c r="C12" t="n">
-        <v>0.4642080471808289</v>
+        <v>0.4152002500997078</v>
       </c>
       <c r="D12" t="n">
-        <v>0.3920836819308785</v>
+        <v>0.2752082311713474</v>
       </c>
       <c r="E12" t="n">
-        <v>4.603182453953606e-12</v>
+        <v>0.1569311926119937</v>
       </c>
       <c r="F12" t="n">
-        <v>4.603182453953582e-12</v>
+        <v>0.1384649170835845</v>
       </c>
       <c r="G12" t="n">
-        <v>0.4642080471808289</v>
+        <v>0.4152002500997078</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -6050,26 +5210,26 @@
     <row r="13">
       <c r="A13" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS757_16.fasta</t>
+          <t>label_UMGS757_4.fasta</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.1354827917311646</v>
+        <v>0.004323629856481447</v>
       </c>
       <c r="C13" t="n">
-        <v>0.4741506919106278</v>
+        <v>0.5009414819304989</v>
       </c>
       <c r="D13" t="n">
-        <v>0.3903241952925308</v>
+        <v>0.2933653970033119</v>
       </c>
       <c r="E13" t="n">
-        <v>4.232105750359143e-05</v>
+        <v>0.0253330379936855</v>
       </c>
       <c r="F13" t="n">
-        <v>8.173357101034556e-12</v>
+        <v>0.1760364532160222</v>
       </c>
       <c r="G13" t="n">
-        <v>0.4741506919106278</v>
+        <v>0.5009414819304989</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
@@ -6080,56 +5240,56 @@
     <row r="14">
       <c r="A14" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS757_8.fasta</t>
+          <t>label_UMGS757_11.fasta</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.003391777005190348</v>
+        <v>0.0001293135389499173</v>
       </c>
       <c r="C14" t="n">
-        <v>0.4395072359396498</v>
+        <v>0.3081347066571044</v>
       </c>
       <c r="D14" t="n">
-        <v>0.334153848817874</v>
+        <v>0.4176086822974283</v>
       </c>
       <c r="E14" t="n">
-        <v>1.07975972467245e-12</v>
+        <v>0.08133433881392087</v>
       </c>
       <c r="F14" t="n">
-        <v>0.222947138236206</v>
+        <v>0.1927929586925966</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4395072359396498</v>
+        <v>0.4176086822974283</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>s__Sutterella sp900543805</t>
+          <t>s__Sutterella sp900545275</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS757_0.fasta</t>
+          <t>label_UMGS757_15.fasta</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.0035708214667982</v>
+        <v>0.0001667331607054954</v>
       </c>
       <c r="C15" t="n">
-        <v>0.4497251227087919</v>
+        <v>0.6172599353574664</v>
       </c>
       <c r="D15" t="n">
-        <v>0.3229369522667665</v>
+        <v>0.2531915554973484</v>
       </c>
       <c r="E15" t="n">
-        <v>0.04044670598412752</v>
+        <v>0.01608085807865507</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1833203975735159</v>
+        <v>0.1133009179058246</v>
       </c>
       <c r="G15" t="n">
-        <v>0.4497251227087919</v>
+        <v>0.6172599353574664</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -6140,26 +5300,26 @@
     <row r="16">
       <c r="A16" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS757_14.fasta</t>
+          <t>label_UMGS757_20.fasta</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.02613370730108714</v>
+        <v>0.126812724627469</v>
       </c>
       <c r="C16" t="n">
-        <v>0.6120085280846964</v>
+        <v>0.5856783939735591</v>
       </c>
       <c r="D16" t="n">
-        <v>0.224433291476885</v>
+        <v>0.0759633577629337</v>
       </c>
       <c r="E16" t="n">
-        <v>0.01157738067711402</v>
+        <v>0.09052353831468481</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1258470924602174</v>
+        <v>0.1210219853213534</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6120085280846964</v>
+        <v>0.5856783939735591</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -6170,26 +5330,26 @@
     <row r="17">
       <c r="A17" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS757_18.fasta</t>
+          <t>label_UMGS757_9.fasta</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.01419540903336659</v>
+        <v>0.0003781646271386644</v>
       </c>
       <c r="C17" t="n">
-        <v>0.4152002500997078</v>
+        <v>0.4940820311785941</v>
       </c>
       <c r="D17" t="n">
-        <v>0.2752082311713474</v>
+        <v>0.329837786940276</v>
       </c>
       <c r="E17" t="n">
-        <v>0.1569311926119937</v>
+        <v>0.01383203924624692</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1384649170835845</v>
+        <v>0.1618699780077442</v>
       </c>
       <c r="G17" t="n">
-        <v>0.4152002500997078</v>
+        <v>0.4940820311785941</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -6200,26 +5360,26 @@
     <row r="18">
       <c r="A18" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS757_4.fasta</t>
+          <t>label_UMGS757_10.fasta</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.004323629856481447</v>
+        <v>0.0003796276691318126</v>
       </c>
       <c r="C18" t="n">
-        <v>0.5009414819304989</v>
+        <v>0.4094795021155587</v>
       </c>
       <c r="D18" t="n">
-        <v>0.2933653970033119</v>
+        <v>0.3709077736311178</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0253330379936855</v>
+        <v>0.03744852915091702</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1760364532160222</v>
+        <v>0.1817845674332746</v>
       </c>
       <c r="G18" t="n">
-        <v>0.5009414819304989</v>
+        <v>0.4094795021155587</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
@@ -6230,56 +5390,56 @@
     <row r="19">
       <c r="A19" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS757_11.fasta</t>
+          <t>label_UMGS757_13.fasta</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.0001293135389499173</v>
+        <v>0.0007317405592277585</v>
       </c>
       <c r="C19" t="n">
-        <v>0.3081347066571044</v>
+        <v>0.6494077232403722</v>
       </c>
       <c r="D19" t="n">
-        <v>0.4176086822974283</v>
+        <v>0.2189355761322994</v>
       </c>
       <c r="E19" t="n">
-        <v>0.08133433881392087</v>
+        <v>0.01495039539013697</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1927929586925966</v>
+        <v>0.1159745646779636</v>
       </c>
       <c r="G19" t="n">
-        <v>0.4176086822974283</v>
+        <v>0.6494077232403722</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>s__Sutterella sp900545275</t>
+          <t>s__Sutterella sp900543805</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS757_15.fasta</t>
+          <t>label_UMGS757_6.fasta</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.0001667331607054954</v>
+        <v>0.0002763998185017274</v>
       </c>
       <c r="C20" t="n">
-        <v>0.6172599353574664</v>
+        <v>0.5848759611266889</v>
       </c>
       <c r="D20" t="n">
-        <v>0.2531915554973484</v>
+        <v>0.2757496980727463</v>
       </c>
       <c r="E20" t="n">
-        <v>0.01608085807865507</v>
+        <v>0.01131901025857066</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1133009179058246</v>
+        <v>0.1277789307234924</v>
       </c>
       <c r="G20" t="n">
-        <v>0.6172599353574664</v>
+        <v>0.5848759611266889</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
@@ -6290,178 +5450,28 @@
     <row r="21">
       <c r="A21" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS757_20.fasta</t>
+          <t>label_UMGS757_7.fasta</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.126812724627469</v>
+        <v>0.0003921919367736262</v>
       </c>
       <c r="C21" t="n">
-        <v>0.5856783939735591</v>
+        <v>0.5844450946841124</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0759633577629337</v>
+        <v>0.2676685879298197</v>
       </c>
       <c r="E21" t="n">
-        <v>0.09052353831468481</v>
+        <v>0.01262904886417281</v>
       </c>
       <c r="F21" t="n">
-        <v>0.1210219853213534</v>
+        <v>0.1348650765851216</v>
       </c>
       <c r="G21" t="n">
-        <v>0.5856783939735591</v>
+        <v>0.5844450946841124</v>
       </c>
       <c r="H21" t="inlineStr">
-        <is>
-          <t>s__Sutterella sp900543805</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS757_9.fasta</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>0.0003781646271386644</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.4940820311785941</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0.329837786940276</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0.01383203924624692</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0.1618699780077442</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0.4940820311785941</v>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>s__Sutterella sp900543805</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS757_10.fasta</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>0.0003796276691318126</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.4094795021155587</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0.3709077736311178</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0.03744852915091702</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0.1817845674332746</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0.4094795021155587</v>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>s__Sutterella sp900543805</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS757_13.fasta</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>0.0007317405592277585</v>
-      </c>
-      <c r="C24" t="n">
-        <v>0.6494077232403722</v>
-      </c>
-      <c r="D24" t="n">
-        <v>0.2189355761322994</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0.01495039539013697</v>
-      </c>
-      <c r="F24" t="n">
-        <v>0.1159745646779636</v>
-      </c>
-      <c r="G24" t="n">
-        <v>0.6494077232403722</v>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>s__Sutterella sp900543805</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS757_6.fasta</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>0.0002763998185017274</v>
-      </c>
-      <c r="C25" t="n">
-        <v>0.5848759611266889</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0.2757496980727463</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0.01131901025857066</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0.1277789307234924</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0.5848759611266889</v>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>s__Sutterella sp900543805</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS757_7.fasta</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>0.0003921919367736262</v>
-      </c>
-      <c r="C26" t="n">
-        <v>0.5844450946841124</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0.2676685879298197</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0.01262904886417281</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0.1348650765851216</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0.5844450946841124</v>
-      </c>
-      <c r="H26" t="inlineStr">
         <is>
           <t>s__Sutterella sp900543805</t>
         </is>
@@ -6478,7 +5488,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6681,26 +5691,26 @@
     <row r="7">
       <c r="A7" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000186505_22.fasta</t>
+          <t>label_GCF_000186505_1.fasta</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.3100607208100615</v>
+        <v>0.0006463288887705099</v>
       </c>
       <c r="C7" t="n">
-        <v>4.06052137944533e-06</v>
+        <v>0.05381115626850925</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1122535660805412</v>
+        <v>0.04745867740479425</v>
       </c>
       <c r="E7" t="n">
-        <v>0.4806034079022788</v>
+        <v>0.8980838374379037</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09707824468573896</v>
+        <v>2.232206972797247e-14</v>
       </c>
       <c r="G7" t="n">
-        <v>0.4806034079022788</v>
+        <v>0.8980838374379037</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -6711,56 +5721,56 @@
     <row r="8">
       <c r="A8" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000186505_23.fasta</t>
+          <t>label_GCF_000186505_14.fasta</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.09889028502698564</v>
+        <v>0.001558951477856456</v>
       </c>
       <c r="C8" t="n">
-        <v>7.61502854922161e-12</v>
+        <v>0.08870015690234741</v>
       </c>
       <c r="D8" t="n">
-        <v>0.3661153730476011</v>
+        <v>0.04179087286958077</v>
       </c>
       <c r="E8" t="n">
-        <v>0.2152562187397908</v>
+        <v>0.867950018750193</v>
       </c>
       <c r="F8" t="n">
-        <v>0.3197381231780075</v>
+        <v>2.234750194566277e-14</v>
       </c>
       <c r="G8" t="n">
-        <v>0.3661153730476011</v>
+        <v>0.867950018750193</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>s__Sutterella sp900545275</t>
+          <t>s__Sutterella wadsworthensis</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000186505_6.fasta</t>
+          <t>label_GCF_000186505_19.fasta</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.002478522310607899</v>
+        <v>0.001561254501496957</v>
       </c>
       <c r="C9" t="n">
-        <v>0.005153366180043148</v>
+        <v>0.02045226413759958</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1027120043705511</v>
+        <v>0.04626619495617579</v>
       </c>
       <c r="E9" t="n">
-        <v>0.8148612186775283</v>
+        <v>0.9317202864047054</v>
       </c>
       <c r="F9" t="n">
-        <v>0.07479488846126965</v>
+        <v>2.223398699156387e-14</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8148612186775283</v>
+        <v>0.9317202864047054</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -6771,26 +5781,26 @@
     <row r="10">
       <c r="A10" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000186505_9.fasta</t>
+          <t>label_GCF_000186505_2.fasta</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.001291376161606303</v>
+        <v>0.0007246079116636043</v>
       </c>
       <c r="C10" t="n">
-        <v>7.116620189613394e-06</v>
+        <v>0.08191007039193297</v>
       </c>
       <c r="D10" t="n">
-        <v>0.06319793384495419</v>
+        <v>0.04711096932700748</v>
       </c>
       <c r="E10" t="n">
-        <v>0.8975950582212826</v>
+        <v>0.8702543523693737</v>
       </c>
       <c r="F10" t="n">
-        <v>0.03790851515196717</v>
+        <v>2.233879926925131e-14</v>
       </c>
       <c r="G10" t="n">
-        <v>0.8975950582212826</v>
+        <v>0.8702543523693737</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -6801,26 +5811,26 @@
     <row r="11">
       <c r="A11" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000186505_1.fasta</t>
+          <t>label_GCF_000186505_24.fasta</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.0006463288887705099</v>
+        <v>7.219244975855354e-08</v>
       </c>
       <c r="C11" t="n">
-        <v>0.05381115626850925</v>
+        <v>1.3101143224811e-06</v>
       </c>
       <c r="D11" t="n">
-        <v>0.04745867740479425</v>
+        <v>0.01347323138612031</v>
       </c>
       <c r="E11" t="n">
-        <v>0.8980838374379037</v>
+        <v>0.9865253863070852</v>
       </c>
       <c r="F11" t="n">
-        <v>2.232206972797247e-14</v>
+        <v>2.219845695742303e-14</v>
       </c>
       <c r="G11" t="n">
-        <v>0.8980838374379037</v>
+        <v>0.9865253863070852</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -6831,26 +5841,26 @@
     <row r="12">
       <c r="A12" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000186505_14.fasta</t>
+          <t>label_GCF_000186505_12.fasta</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.001558951477856456</v>
+        <v>0.005691182435759905</v>
       </c>
       <c r="C12" t="n">
-        <v>0.08870015690234741</v>
+        <v>0.0247078875437314</v>
       </c>
       <c r="D12" t="n">
-        <v>0.04179087286958077</v>
+        <v>0.06126726915631184</v>
       </c>
       <c r="E12" t="n">
-        <v>0.867950018750193</v>
+        <v>0.882587907212281</v>
       </c>
       <c r="F12" t="n">
-        <v>2.234750194566277e-14</v>
+        <v>0.02574575365191588</v>
       </c>
       <c r="G12" t="n">
-        <v>0.867950018750193</v>
+        <v>0.882587907212281</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -6861,26 +5871,26 @@
     <row r="13">
       <c r="A13" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000186505_19.fasta</t>
+          <t>label_GCF_000186505_17.fasta</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.001561254501496957</v>
+        <v>0.02845995231909744</v>
       </c>
       <c r="C13" t="n">
-        <v>0.02045226413759958</v>
+        <v>0.1453443843311243</v>
       </c>
       <c r="D13" t="n">
-        <v>0.04626619495617579</v>
+        <v>0.1140247236251825</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9317202864047054</v>
+        <v>0.6518760425805058</v>
       </c>
       <c r="F13" t="n">
-        <v>2.223398699156387e-14</v>
+        <v>0.06029489714409001</v>
       </c>
       <c r="G13" t="n">
-        <v>0.9317202864047054</v>
+        <v>0.6518760425805058</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
@@ -6891,26 +5901,26 @@
     <row r="14">
       <c r="A14" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000186505_2.fasta</t>
+          <t>label_GCF_000186505_20.fasta</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.0007246079116636043</v>
+        <v>0.01426234658005235</v>
       </c>
       <c r="C14" t="n">
-        <v>0.08191007039193297</v>
+        <v>0.05986451241397222</v>
       </c>
       <c r="D14" t="n">
-        <v>0.04711096932700748</v>
+        <v>0.07917292795096337</v>
       </c>
       <c r="E14" t="n">
-        <v>0.8702543523693737</v>
+        <v>0.8102761019387827</v>
       </c>
       <c r="F14" t="n">
-        <v>2.233879926925131e-14</v>
+        <v>0.03642411111622939</v>
       </c>
       <c r="G14" t="n">
-        <v>0.8702543523693737</v>
+        <v>0.8102761019387827</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -6921,26 +5931,26 @@
     <row r="15">
       <c r="A15" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000186505_24.fasta</t>
+          <t>label_GCF_000186505_21.fasta</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>7.219244975855354e-08</v>
+        <v>0.01601794539026364</v>
       </c>
       <c r="C15" t="n">
-        <v>1.3101143224811e-06</v>
+        <v>0.005968354963371998</v>
       </c>
       <c r="D15" t="n">
-        <v>0.01347323138612031</v>
+        <v>0.06489036026788514</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9865253863070852</v>
+        <v>0.8810640317826376</v>
       </c>
       <c r="F15" t="n">
-        <v>2.219845695742303e-14</v>
+        <v>0.03205930759584157</v>
       </c>
       <c r="G15" t="n">
-        <v>0.9865253863070852</v>
+        <v>0.8810640317826376</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -6951,26 +5961,26 @@
     <row r="16">
       <c r="A16" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000186505_12.fasta</t>
+          <t>label_GCF_000186505_8.fasta</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.005691182435759905</v>
+        <v>0.00603716463208654</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0247078875437314</v>
+        <v>0.0380243007298733</v>
       </c>
       <c r="D16" t="n">
-        <v>0.06126726915631184</v>
+        <v>0.06362074346119644</v>
       </c>
       <c r="E16" t="n">
-        <v>0.882587907212281</v>
+        <v>0.8652905945790591</v>
       </c>
       <c r="F16" t="n">
-        <v>0.02574575365191588</v>
+        <v>0.02702719659778469</v>
       </c>
       <c r="G16" t="n">
-        <v>0.882587907212281</v>
+        <v>0.8652905945790591</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -6981,26 +5991,26 @@
     <row r="17">
       <c r="A17" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000186505_17.fasta</t>
+          <t>label_GCF_000186505_10.fasta</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.02845995231909744</v>
+        <v>0.0006342965328773993</v>
       </c>
       <c r="C17" t="n">
-        <v>0.1453443843311243</v>
+        <v>0.03354638768928844</v>
       </c>
       <c r="D17" t="n">
-        <v>0.1140247236251825</v>
+        <v>0.1048695208362975</v>
       </c>
       <c r="E17" t="n">
-        <v>0.6518760425805058</v>
+        <v>0.8098493189976416</v>
       </c>
       <c r="F17" t="n">
-        <v>0.06029489714409001</v>
+        <v>0.05110047594389502</v>
       </c>
       <c r="G17" t="n">
-        <v>0.6518760425805058</v>
+        <v>0.8098493189976416</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -7011,26 +6021,26 @@
     <row r="18">
       <c r="A18" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000186505_20.fasta</t>
+          <t>label_GCF_000186505_11.fasta</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.01426234658005235</v>
+        <v>0.001466217808384848</v>
       </c>
       <c r="C18" t="n">
-        <v>0.05986451241397222</v>
+        <v>0.1228818939798289</v>
       </c>
       <c r="D18" t="n">
-        <v>0.07917292795096337</v>
+        <v>0.07111465359782324</v>
       </c>
       <c r="E18" t="n">
-        <v>0.8102761019387827</v>
+        <v>0.7465940975547969</v>
       </c>
       <c r="F18" t="n">
-        <v>0.03642411111622939</v>
+        <v>0.05794313705916615</v>
       </c>
       <c r="G18" t="n">
-        <v>0.8102761019387827</v>
+        <v>0.7465940975547969</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
@@ -7041,26 +6051,26 @@
     <row r="19">
       <c r="A19" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000186505_21.fasta</t>
+          <t>label_GCF_000186505_13.fasta</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.01601794539026364</v>
+        <v>0.0003413563738913802</v>
       </c>
       <c r="C19" t="n">
-        <v>0.005968354963371998</v>
+        <v>0.01806294453853953</v>
       </c>
       <c r="D19" t="n">
-        <v>0.06489036026788514</v>
+        <v>0.071710109390826</v>
       </c>
       <c r="E19" t="n">
-        <v>0.8810640317826376</v>
+        <v>0.8659087622784074</v>
       </c>
       <c r="F19" t="n">
-        <v>0.03205930759584157</v>
+        <v>0.04397682741833572</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8810640317826376</v>
+        <v>0.8659087622784074</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
@@ -7071,26 +6081,26 @@
     <row r="20">
       <c r="A20" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000186505_8.fasta</t>
+          <t>label_GCF_000186505_15.fasta</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.00603716463208654</v>
+        <v>0.0009638913546837206</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0380243007298733</v>
+        <v>0.0007903289082646928</v>
       </c>
       <c r="D20" t="n">
-        <v>0.06362074346119644</v>
+        <v>0.01235545738930647</v>
       </c>
       <c r="E20" t="n">
-        <v>0.8652905945790591</v>
+        <v>0.9424940004299247</v>
       </c>
       <c r="F20" t="n">
-        <v>0.02702719659778469</v>
+        <v>0.04339632191782041</v>
       </c>
       <c r="G20" t="n">
-        <v>0.8652905945790591</v>
+        <v>0.9424940004299247</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
@@ -7101,26 +6111,26 @@
     <row r="21">
       <c r="A21" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000186505_10.fasta</t>
+          <t>label_GCF_000186505_16.fasta</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.0006342965328773993</v>
+        <v>0.002178291954002902</v>
       </c>
       <c r="C21" t="n">
-        <v>0.03354638768928844</v>
+        <v>0.1260686021779744</v>
       </c>
       <c r="D21" t="n">
-        <v>0.1048695208362975</v>
+        <v>0.0671837499783287</v>
       </c>
       <c r="E21" t="n">
-        <v>0.8098493189976416</v>
+        <v>0.7466066583046903</v>
       </c>
       <c r="F21" t="n">
-        <v>0.05110047594389502</v>
+        <v>0.0579626975850036</v>
       </c>
       <c r="G21" t="n">
-        <v>0.8098493189976416</v>
+        <v>0.7466066583046903</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
@@ -7131,26 +6141,26 @@
     <row r="22">
       <c r="A22" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000186505_11.fasta</t>
+          <t>label_GCF_000186505_5.fasta</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.001466217808384848</v>
+        <v>0.0004160197727148264</v>
       </c>
       <c r="C22" t="n">
-        <v>0.1228818939798289</v>
+        <v>0.05569339419141794</v>
       </c>
       <c r="D22" t="n">
-        <v>0.07111465359782324</v>
+        <v>0.08640409838258223</v>
       </c>
       <c r="E22" t="n">
-        <v>0.7465940975547969</v>
+        <v>0.8045310586480119</v>
       </c>
       <c r="F22" t="n">
-        <v>0.05794313705916615</v>
+        <v>0.05295542900527315</v>
       </c>
       <c r="G22" t="n">
-        <v>0.7465940975547969</v>
+        <v>0.8045310586480119</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
@@ -7161,26 +6171,26 @@
     <row r="23">
       <c r="A23" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000186505_13.fasta</t>
+          <t>label_GCF_000186505_0.fasta</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.0003413563738913802</v>
+        <v>5.053816505567442e-05</v>
       </c>
       <c r="C23" t="n">
-        <v>0.01806294453853953</v>
+        <v>0.001803698840830759</v>
       </c>
       <c r="D23" t="n">
-        <v>0.071710109390826</v>
+        <v>0.08645824747777428</v>
       </c>
       <c r="E23" t="n">
-        <v>0.8659087622784074</v>
+        <v>0.8673624584439691</v>
       </c>
       <c r="F23" t="n">
-        <v>0.04397682741833572</v>
+        <v>0.04432505707237017</v>
       </c>
       <c r="G23" t="n">
-        <v>0.8659087622784074</v>
+        <v>0.8673624584439691</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
@@ -7191,26 +6201,26 @@
     <row r="24">
       <c r="A24" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000186505_15.fasta</t>
+          <t>label_GCF_000186505_18.fasta</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.0009638913546837206</v>
+        <v>0.000116663539065694</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0007903289082646928</v>
+        <v>4.954389633564889e-05</v>
       </c>
       <c r="D24" t="n">
-        <v>0.01235545738930647</v>
+        <v>0.05317583987703119</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9424940004299247</v>
+        <v>0.9130239256153392</v>
       </c>
       <c r="F24" t="n">
-        <v>0.04339632191782041</v>
+        <v>0.03363402707222818</v>
       </c>
       <c r="G24" t="n">
-        <v>0.9424940004299247</v>
+        <v>0.9130239256153392</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
@@ -7221,26 +6231,26 @@
     <row r="25">
       <c r="A25" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000186505_16.fasta</t>
+          <t>label_GCF_000186505_3.fasta</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.002178291954002902</v>
+        <v>6.992205163455031e-05</v>
       </c>
       <c r="C25" t="n">
-        <v>0.1260686021779744</v>
+        <v>0.001470378094106629</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0671837499783287</v>
+        <v>0.06460849690245815</v>
       </c>
       <c r="E25" t="n">
-        <v>0.7466066583046903</v>
+        <v>0.8945346649274979</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0579626975850036</v>
+        <v>0.03931653802430288</v>
       </c>
       <c r="G25" t="n">
-        <v>0.7466066583046903</v>
+        <v>0.8945346649274979</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
@@ -7251,26 +6261,26 @@
     <row r="26">
       <c r="A26" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000186505_5.fasta</t>
+          <t>label_GCF_000186505_4.fasta</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.0004160197727148264</v>
+        <v>6.345813745425608e-05</v>
       </c>
       <c r="C26" t="n">
-        <v>0.05569339419141794</v>
+        <v>0.002096776297727803</v>
       </c>
       <c r="D26" t="n">
-        <v>0.08640409838258223</v>
+        <v>0.1292822058013257</v>
       </c>
       <c r="E26" t="n">
-        <v>0.8045310586480119</v>
+        <v>0.8111422852045379</v>
       </c>
       <c r="F26" t="n">
-        <v>0.05295542900527315</v>
+        <v>0.05741527455895438</v>
       </c>
       <c r="G26" t="n">
-        <v>0.8045310586480119</v>
+        <v>0.8111422852045379</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
@@ -7281,148 +6291,28 @@
     <row r="27">
       <c r="A27" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000186505_0.fasta</t>
+          <t>label_GCF_000186505_7.fasta</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>5.053816505567442e-05</v>
+        <v>6.563184199346761e-05</v>
       </c>
       <c r="C27" t="n">
-        <v>0.001803698840830759</v>
+        <v>0.001168157373373568</v>
       </c>
       <c r="D27" t="n">
-        <v>0.08645824747777428</v>
+        <v>0.07231424426992421</v>
       </c>
       <c r="E27" t="n">
-        <v>0.8673624584439691</v>
+        <v>0.8859371127000957</v>
       </c>
       <c r="F27" t="n">
-        <v>0.04432505707237017</v>
+        <v>0.04051485381461298</v>
       </c>
       <c r="G27" t="n">
-        <v>0.8673624584439691</v>
+        <v>0.8859371127000957</v>
       </c>
       <c r="H27" t="inlineStr">
-        <is>
-          <t>s__Sutterella wadsworthensis</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="11" t="inlineStr">
-        <is>
-          <t>label_GCF_000186505_18.fasta</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>0.000116663539065694</v>
-      </c>
-      <c r="C28" t="n">
-        <v>4.954389633564889e-05</v>
-      </c>
-      <c r="D28" t="n">
-        <v>0.05317583987703119</v>
-      </c>
-      <c r="E28" t="n">
-        <v>0.9130239256153392</v>
-      </c>
-      <c r="F28" t="n">
-        <v>0.03363402707222818</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0.9130239256153392</v>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>s__Sutterella wadsworthensis</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="11" t="inlineStr">
-        <is>
-          <t>label_GCF_000186505_3.fasta</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
-        <v>6.992205163455031e-05</v>
-      </c>
-      <c r="C29" t="n">
-        <v>0.001470378094106629</v>
-      </c>
-      <c r="D29" t="n">
-        <v>0.06460849690245815</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0.8945346649274979</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0.03931653802430288</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0.8945346649274979</v>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>s__Sutterella wadsworthensis</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="11" t="inlineStr">
-        <is>
-          <t>label_GCF_000186505_4.fasta</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
-        <v>6.345813745425608e-05</v>
-      </c>
-      <c r="C30" t="n">
-        <v>0.002096776297727803</v>
-      </c>
-      <c r="D30" t="n">
-        <v>0.1292822058013257</v>
-      </c>
-      <c r="E30" t="n">
-        <v>0.8111422852045379</v>
-      </c>
-      <c r="F30" t="n">
-        <v>0.05741527455895438</v>
-      </c>
-      <c r="G30" t="n">
-        <v>0.8111422852045379</v>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>s__Sutterella wadsworthensis</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="11" t="inlineStr">
-        <is>
-          <t>label_GCF_000186505_7.fasta</t>
-        </is>
-      </c>
-      <c r="B31" t="n">
-        <v>6.563184199346761e-05</v>
-      </c>
-      <c r="C31" t="n">
-        <v>0.001168157373373568</v>
-      </c>
-      <c r="D31" t="n">
-        <v>0.07231424426992421</v>
-      </c>
-      <c r="E31" t="n">
-        <v>0.8859371127000957</v>
-      </c>
-      <c r="F31" t="n">
-        <v>0.04051485381461298</v>
-      </c>
-      <c r="G31" t="n">
-        <v>0.8859371127000957</v>
-      </c>
-      <c r="H31" t="inlineStr">
         <is>
           <t>s__Sutterella wadsworthensis</t>
         </is>
@@ -7439,7 +6329,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7552,86 +6442,86 @@
     <row r="4">
       <c r="A4" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000297775_0.fasta</t>
+          <t>label_GCF_000297775_1.fasta</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.02136425750275901</v>
+        <v>0.001752140326220605</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3233277116774471</v>
+        <v>0.09926194486072613</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2621890674433013</v>
+        <v>0.04465378886579956</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1275880054213162</v>
+        <v>6.564357160416204e-14</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2655309579551764</v>
+        <v>0.8543321259471881</v>
       </c>
       <c r="G4" t="n">
-        <v>0.3233277116774471</v>
+        <v>0.8543321259471881</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>s__Sutterella sp900543805</t>
+          <t>s__Sutterella wadsworthensis_A</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000297775_2.fasta</t>
+          <t>label_GCF_000297775_10.fasta</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.02128765950139441</v>
+        <v>0.0001781011066563769</v>
       </c>
       <c r="C5" t="n">
-        <v>0.300246699051713</v>
+        <v>0.0001333470126228523</v>
       </c>
       <c r="D5" t="n">
-        <v>0.2701554812724873</v>
+        <v>0.02920624464099715</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1394426857511575</v>
+        <v>0.9704823072397014</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2688674744232477</v>
+        <v>2.218888355827425e-14</v>
       </c>
       <c r="G5" t="n">
-        <v>0.300246699051713</v>
+        <v>0.9704823072397014</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>s__Sutterella sp900543805</t>
+          <t>s__Sutterella wadsworthensis</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000297775_1.fasta</t>
+          <t>label_GCF_000297775_9.fasta</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.001752140326220605</v>
+        <v>0.008483980026711264</v>
       </c>
       <c r="C6" t="n">
-        <v>0.09926194486072613</v>
+        <v>0.102892720350665</v>
       </c>
       <c r="D6" t="n">
-        <v>0.04465378886579956</v>
+        <v>0.04529421252047085</v>
       </c>
       <c r="E6" t="n">
-        <v>6.564357160416204e-14</v>
+        <v>2.241357931893453e-14</v>
       </c>
       <c r="F6" t="n">
-        <v>0.8543321259471881</v>
+        <v>0.8433290871021304</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8543321259471881</v>
+        <v>0.8433290871021304</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -7642,116 +6532,116 @@
     <row r="7">
       <c r="A7" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000297775_10.fasta</t>
+          <t>label_GCF_000297775_5.fasta</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.0001781011066563769</v>
+        <v>0.01726546853131275</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0001333470126228523</v>
+        <v>0.3230274185257034</v>
       </c>
       <c r="D7" t="n">
-        <v>0.02920624464099715</v>
+        <v>0.2456810793010013</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9704823072397014</v>
+        <v>0.1980920953519335</v>
       </c>
       <c r="F7" t="n">
-        <v>2.218888355827425e-14</v>
+        <v>0.2159339382900491</v>
       </c>
       <c r="G7" t="n">
-        <v>0.9704823072397014</v>
+        <v>0.3230274185257034</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>s__Sutterella wadsworthensis</t>
+          <t>s__Sutterella sp900543805</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000297775_9.fasta</t>
+          <t>label_GCF_000297775_6.fasta</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.008483980026711264</v>
+        <v>0.05352226552038454</v>
       </c>
       <c r="C8" t="n">
-        <v>0.102892720350665</v>
+        <v>0.4251652742100889</v>
       </c>
       <c r="D8" t="n">
-        <v>0.04529421252047085</v>
+        <v>0.2337140592294857</v>
       </c>
       <c r="E8" t="n">
-        <v>2.241357931893453e-14</v>
+        <v>0.0609631596493039</v>
       </c>
       <c r="F8" t="n">
-        <v>0.8433290871021304</v>
+        <v>0.226635241390737</v>
       </c>
       <c r="G8" t="n">
-        <v>0.8433290871021304</v>
+        <v>0.4251652742100889</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>s__Sutterella wadsworthensis_A</t>
+          <t>s__Sutterella sp900543805</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000297775_5.fasta</t>
+          <t>label_GCF_000297775_8.fasta</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.01726546853131275</v>
+        <v>0.01064430825406375</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3230274185257034</v>
+        <v>0.204582214238775</v>
       </c>
       <c r="D9" t="n">
-        <v>0.2456810793010013</v>
+        <v>0.2197520823006934</v>
       </c>
       <c r="E9" t="n">
-        <v>0.1980920953519335</v>
+        <v>0.4274587704737913</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2159339382900491</v>
+        <v>0.1375626247326766</v>
       </c>
       <c r="G9" t="n">
-        <v>0.3230274185257034</v>
+        <v>0.4274587704737913</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>s__Sutterella sp900543805</t>
+          <t>s__Sutterella wadsworthensis</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000297775_6.fasta</t>
+          <t>label_GCF_000297775_3.fasta</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.05352226552038454</v>
+        <v>0.003264917571157521</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4251652742100889</v>
+        <v>0.3064649540786871</v>
       </c>
       <c r="D10" t="n">
-        <v>0.2337140592294857</v>
+        <v>0.2814901374142442</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0609631596493039</v>
+        <v>0.1335882507797525</v>
       </c>
       <c r="F10" t="n">
-        <v>0.226635241390737</v>
+        <v>0.2751917401561587</v>
       </c>
       <c r="G10" t="n">
-        <v>0.4251652742100889</v>
+        <v>0.3064649540786871</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -7762,118 +6652,58 @@
     <row r="11">
       <c r="A11" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000297775_8.fasta</t>
+          <t>label_GCF_000297775_4.fasta</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.01064430825406375</v>
+        <v>0.004867354310777203</v>
       </c>
       <c r="C11" t="n">
-        <v>0.204582214238775</v>
+        <v>0.3095471846949493</v>
       </c>
       <c r="D11" t="n">
-        <v>0.2197520823006934</v>
+        <v>0.2553268613125294</v>
       </c>
       <c r="E11" t="n">
-        <v>0.4274587704737913</v>
+        <v>0.18055819878999</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1375626247326766</v>
+        <v>0.2497004008917539</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4274587704737913</v>
+        <v>0.3095471846949493</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>s__Sutterella wadsworthensis</t>
+          <t>s__Sutterella sp900543805</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000297775_3.fasta</t>
+          <t>label_GCF_000297775_7.fasta</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.003264917571157521</v>
+        <v>0.02302171635698745</v>
       </c>
       <c r="C12" t="n">
-        <v>0.3064649540786871</v>
+        <v>0.398500002702373</v>
       </c>
       <c r="D12" t="n">
-        <v>0.2814901374142442</v>
+        <v>0.2275682907018137</v>
       </c>
       <c r="E12" t="n">
-        <v>0.1335882507797525</v>
+        <v>0.1140230122553871</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2751917401561587</v>
+        <v>0.2368869779834389</v>
       </c>
       <c r="G12" t="n">
-        <v>0.3064649540786871</v>
+        <v>0.398500002702373</v>
       </c>
       <c r="H12" t="inlineStr">
-        <is>
-          <t>s__Sutterella sp900543805</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="11" t="inlineStr">
-        <is>
-          <t>label_GCF_000297775_4.fasta</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>0.004867354310777203</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.3095471846949493</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0.2553268613125294</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0.18055819878999</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0.2497004008917539</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0.3095471846949493</v>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>s__Sutterella sp900543805</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="11" t="inlineStr">
-        <is>
-          <t>label_GCF_000297775_7.fasta</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>0.02302171635698745</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0.398500002702373</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0.2275682907018137</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0.1140230122553871</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0.2368869779834389</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0.398500002702373</v>
-      </c>
-      <c r="H14" t="inlineStr">
         <is>
           <t>s__Sutterella sp900543805</t>
         </is>
